--- a/Ekran/TouchGFX/assets/texts/texts.xlsx
+++ b/Ekran/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="51">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -156,6 +156,18 @@
   </si>
   <si>
     <t xml:space="preserve">New Text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0123456789.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;&gt; %</t>
   </si>
 </sst>
 </file>
@@ -1339,7 +1351,7 @@
         <v>40</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
         <v>40</v>
@@ -1595,6 +1607,23 @@
         <v>46</v>
       </c>
     </row>
+    <row r="5">
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E2"/>

--- a/Ekran/TouchGFX/assets/texts/texts.xlsx
+++ b/Ekran/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="69">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -168,6 +168,68 @@
   </si>
   <si>
     <t xml:space="preserve">&lt;&gt; %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typography_00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typography_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arial.ttf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROCK.TTF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">km/h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HV
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HV
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HV
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HV
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HV
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HV
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HV
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HV
+</t>
   </si>
 </sst>
 </file>
@@ -1336,10 +1398,10 @@
         <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -1351,7 +1413,7 @@
         <v>40</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="I4" t="s">
         <v>40</v>
@@ -1460,6 +1522,33 @@
       <c r="P6" s="10"/>
     </row>
     <row r="7" spans="2:16">
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7">
+        <v>300</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" t="s">
+        <v>63</v>
+      </c>
+      <c r="J7" t="s">
+        <v>40</v>
+      </c>
       <c r="L7" s="7" t="s">
         <v>7</v>
       </c>
@@ -1477,6 +1566,33 @@
       </c>
     </row>
     <row r="8" spans="2:16">
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" t="s">
+        <v>40</v>
+      </c>
       <c r="L8" s="7" t="s">
         <v>8</v>
       </c>
@@ -1595,16 +1711,16 @@
         <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E4" t="s">
         <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5">
@@ -1612,16 +1728,50 @@
         <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E5" t="s">
         <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/Ekran/TouchGFX/assets/texts/texts.xlsx
+++ b/Ekran/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4481" uniqueCount="361">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -230,6 +230,931 @@
   <si>
     <t xml:space="preserve">HV
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BMS HV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LVPB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STATE:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voltage:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temp:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOC:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typography_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Currnet:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BMS1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BMS2
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BMS4
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BMS3
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BMS5
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BMS6
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BMS7
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BMS8
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BMS9
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BMS10
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BMS2
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BMS4
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BMS3
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BMS5
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BMS6
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BMS7
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BMS8
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BMS9
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BMS10
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BMS2
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BMS4
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BMS3
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BMS5
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BMS6
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BMS7
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BMS8
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BMS9
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BMS10
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typography_03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BMS6
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BMS7
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BMS3
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BMS4
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HV VOLTAGES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seg1-Seg2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CELL 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CELL 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CELL 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CELL 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CELL 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CELL 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CELL 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CELL 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CELL 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CELL 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CELL 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CELL 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CELL 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CELL 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId190</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId214</t>
   </si>
 </sst>
 </file>
@@ -1442,7 +2367,7 @@
         <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="D5">
         <v>40</v>
@@ -1460,7 +2385,7 @@
         <v>40</v>
       </c>
       <c r="I5" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="J5" t="s">
         <v>40</v>
@@ -1570,10 +2495,10 @@
         <v>52</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E8">
         <v>4</v>
@@ -1588,7 +2513,7 @@
         <v>40</v>
       </c>
       <c r="I8" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="J8" t="s">
         <v>40</v>
@@ -1608,6 +2533,33 @@
       <c r="P8" s="10"/>
     </row>
     <row r="9" spans="2:16">
+      <c r="B9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" t="s">
+        <v>63</v>
+      </c>
+      <c r="J9" t="s">
+        <v>40</v>
+      </c>
       <c r="L9" s="11" t="s">
         <v>6</v>
       </c>
@@ -1625,6 +2577,33 @@
       </c>
     </row>
     <row r="10" spans="2:16">
+      <c r="B10" t="s">
+        <v>226</v>
+      </c>
+      <c r="C10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10">
+        <v>12</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" t="s">
+        <v>40</v>
+      </c>
       <c r="L10" s="11" t="s">
         <v>28</v>
       </c>
@@ -1771,7 +2750,3577 @@
         <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>68</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" t="s">
+        <v>112</v>
+      </c>
+      <c r="E28" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="s">
+        <v>116</v>
+      </c>
+      <c r="C31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" t="s">
+        <v>112</v>
+      </c>
+      <c r="E31" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="s">
+        <v>117</v>
+      </c>
+      <c r="C32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="s">
+        <v>118</v>
+      </c>
+      <c r="C33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="s">
+        <v>120</v>
+      </c>
+      <c r="C34" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="s">
+        <v>122</v>
+      </c>
+      <c r="C35" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" t="s">
+        <v>124</v>
+      </c>
+      <c r="C36" t="s">
+        <v>103</v>
+      </c>
+      <c r="D36" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" t="s">
+        <v>45</v>
+      </c>
+      <c r="F36" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" t="s">
+        <v>126</v>
+      </c>
+      <c r="C37" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" t="s">
+        <v>45</v>
+      </c>
+      <c r="F37" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" t="s">
+        <v>128</v>
+      </c>
+      <c r="C38" t="s">
+        <v>103</v>
+      </c>
+      <c r="D38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E38" t="s">
+        <v>45</v>
+      </c>
+      <c r="F38" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39" t="s">
+        <v>103</v>
+      </c>
+      <c r="D39" t="s">
+        <v>49</v>
+      </c>
+      <c r="E39" t="s">
+        <v>45</v>
+      </c>
+      <c r="F39" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" t="s">
+        <v>132</v>
+      </c>
+      <c r="C40" t="s">
+        <v>103</v>
+      </c>
+      <c r="D40" t="s">
+        <v>49</v>
+      </c>
+      <c r="E40" t="s">
+        <v>45</v>
+      </c>
+      <c r="F40" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" t="s">
+        <v>134</v>
+      </c>
+      <c r="C41" t="s">
+        <v>103</v>
+      </c>
+      <c r="D41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41" t="s">
+        <v>45</v>
+      </c>
+      <c r="F41" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" t="s">
+        <v>136</v>
+      </c>
+      <c r="C42" t="s">
+        <v>103</v>
+      </c>
+      <c r="D42" t="s">
+        <v>49</v>
+      </c>
+      <c r="E42" t="s">
+        <v>45</v>
+      </c>
+      <c r="F42" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" t="s">
+        <v>138</v>
+      </c>
+      <c r="C43" t="s">
+        <v>103</v>
+      </c>
+      <c r="D43" t="s">
+        <v>49</v>
+      </c>
+      <c r="E43" t="s">
+        <v>45</v>
+      </c>
+      <c r="F43" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" t="s">
+        <v>140</v>
+      </c>
+      <c r="C44" t="s">
+        <v>41</v>
+      </c>
+      <c r="D44" t="s">
+        <v>44</v>
+      </c>
+      <c r="E44" t="s">
+        <v>45</v>
+      </c>
+      <c r="F44" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" t="s">
+        <v>141</v>
+      </c>
+      <c r="C45" t="s">
+        <v>41</v>
+      </c>
+      <c r="D45" t="s">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>45</v>
+      </c>
+      <c r="F45" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="s">
+        <v>143</v>
+      </c>
+      <c r="C46" t="s">
+        <v>41</v>
+      </c>
+      <c r="D46" t="s">
+        <v>49</v>
+      </c>
+      <c r="E46" t="s">
+        <v>45</v>
+      </c>
+      <c r="F46" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" t="s">
+        <v>144</v>
+      </c>
+      <c r="C47" t="s">
+        <v>41</v>
+      </c>
+      <c r="D47" t="s">
+        <v>44</v>
+      </c>
+      <c r="E47" t="s">
+        <v>45</v>
+      </c>
+      <c r="F47" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" t="s">
+        <v>145</v>
+      </c>
+      <c r="C48" t="s">
+        <v>41</v>
+      </c>
+      <c r="D48" t="s">
+        <v>44</v>
+      </c>
+      <c r="E48" t="s">
+        <v>45</v>
+      </c>
+      <c r="F48" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" t="s">
+        <v>146</v>
+      </c>
+      <c r="C49" t="s">
+        <v>41</v>
+      </c>
+      <c r="D49" t="s">
+        <v>44</v>
+      </c>
+      <c r="E49" t="s">
+        <v>45</v>
+      </c>
+      <c r="F49" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" t="s">
+        <v>148</v>
+      </c>
+      <c r="C50" t="s">
+        <v>41</v>
+      </c>
+      <c r="D50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E50" t="s">
+        <v>45</v>
+      </c>
+      <c r="F50" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" t="s">
+        <v>149</v>
+      </c>
+      <c r="C51" t="s">
+        <v>41</v>
+      </c>
+      <c r="D51" t="s">
+        <v>44</v>
+      </c>
+      <c r="E51" t="s">
+        <v>45</v>
+      </c>
+      <c r="F51" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" t="s">
+        <v>150</v>
+      </c>
+      <c r="C52" t="s">
+        <v>41</v>
+      </c>
+      <c r="D52" t="s">
+        <v>49</v>
+      </c>
+      <c r="E52" t="s">
+        <v>45</v>
+      </c>
+      <c r="F52" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" t="s">
+        <v>151</v>
+      </c>
+      <c r="C53" t="s">
+        <v>41</v>
+      </c>
+      <c r="D53" t="s">
+        <v>44</v>
+      </c>
+      <c r="E53" t="s">
+        <v>45</v>
+      </c>
+      <c r="F53" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" t="s">
+        <v>152</v>
+      </c>
+      <c r="C54" t="s">
+        <v>41</v>
+      </c>
+      <c r="D54" t="s">
+        <v>44</v>
+      </c>
+      <c r="E54" t="s">
+        <v>45</v>
+      </c>
+      <c r="F54" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" t="s">
+        <v>153</v>
+      </c>
+      <c r="C55" t="s">
+        <v>41</v>
+      </c>
+      <c r="D55" t="s">
+        <v>44</v>
+      </c>
+      <c r="E55" t="s">
+        <v>45</v>
+      </c>
+      <c r="F55" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" t="s">
+        <v>154</v>
+      </c>
+      <c r="C56" t="s">
+        <v>41</v>
+      </c>
+      <c r="D56" t="s">
+        <v>44</v>
+      </c>
+      <c r="E56" t="s">
+        <v>45</v>
+      </c>
+      <c r="F56" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" t="s">
+        <v>155</v>
+      </c>
+      <c r="C57" t="s">
+        <v>41</v>
+      </c>
+      <c r="D57" t="s">
+        <v>44</v>
+      </c>
+      <c r="E57" t="s">
+        <v>45</v>
+      </c>
+      <c r="F57" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" t="s">
+        <v>156</v>
+      </c>
+      <c r="C58" t="s">
+        <v>41</v>
+      </c>
+      <c r="D58" t="s">
+        <v>49</v>
+      </c>
+      <c r="E58" t="s">
+        <v>45</v>
+      </c>
+      <c r="F58" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" t="s">
+        <v>157</v>
+      </c>
+      <c r="C59" t="s">
+        <v>41</v>
+      </c>
+      <c r="D59" t="s">
+        <v>44</v>
+      </c>
+      <c r="E59" t="s">
+        <v>45</v>
+      </c>
+      <c r="F59" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" t="s">
+        <v>158</v>
+      </c>
+      <c r="C60" t="s">
+        <v>41</v>
+      </c>
+      <c r="D60" t="s">
+        <v>44</v>
+      </c>
+      <c r="E60" t="s">
+        <v>45</v>
+      </c>
+      <c r="F60" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" t="s">
+        <v>159</v>
+      </c>
+      <c r="C61" t="s">
+        <v>41</v>
+      </c>
+      <c r="D61" t="s">
+        <v>44</v>
+      </c>
+      <c r="E61" t="s">
+        <v>45</v>
+      </c>
+      <c r="F61" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" t="s">
+        <v>160</v>
+      </c>
+      <c r="C62" t="s">
+        <v>41</v>
+      </c>
+      <c r="D62" t="s">
+        <v>49</v>
+      </c>
+      <c r="E62" t="s">
+        <v>45</v>
+      </c>
+      <c r="F62" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" t="s">
+        <v>161</v>
+      </c>
+      <c r="C63" t="s">
+        <v>41</v>
+      </c>
+      <c r="D63" t="s">
+        <v>44</v>
+      </c>
+      <c r="E63" t="s">
+        <v>45</v>
+      </c>
+      <c r="F63" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" t="s">
+        <v>162</v>
+      </c>
+      <c r="C64" t="s">
+        <v>41</v>
+      </c>
+      <c r="D64" t="s">
+        <v>44</v>
+      </c>
+      <c r="E64" t="s">
+        <v>45</v>
+      </c>
+      <c r="F64" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" t="s">
+        <v>163</v>
+      </c>
+      <c r="C65" t="s">
+        <v>41</v>
+      </c>
+      <c r="D65" t="s">
+        <v>44</v>
+      </c>
+      <c r="E65" t="s">
+        <v>45</v>
+      </c>
+      <c r="F65" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" t="s">
+        <v>164</v>
+      </c>
+      <c r="C66" t="s">
+        <v>41</v>
+      </c>
+      <c r="D66" t="s">
+        <v>44</v>
+      </c>
+      <c r="E66" t="s">
+        <v>45</v>
+      </c>
+      <c r="F66" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" t="s">
+        <v>165</v>
+      </c>
+      <c r="C67" t="s">
+        <v>41</v>
+      </c>
+      <c r="D67" t="s">
+        <v>44</v>
+      </c>
+      <c r="E67" t="s">
+        <v>45</v>
+      </c>
+      <c r="F67" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68" t="s">
+        <v>166</v>
+      </c>
+      <c r="C68" t="s">
+        <v>41</v>
+      </c>
+      <c r="D68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E68" t="s">
+        <v>45</v>
+      </c>
+      <c r="F68" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="B69" t="s">
+        <v>167</v>
+      </c>
+      <c r="C69" t="s">
+        <v>41</v>
+      </c>
+      <c r="D69" t="s">
+        <v>44</v>
+      </c>
+      <c r="E69" t="s">
+        <v>45</v>
+      </c>
+      <c r="F69" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="B70" t="s">
+        <v>168</v>
+      </c>
+      <c r="C70" t="s">
+        <v>41</v>
+      </c>
+      <c r="D70" t="s">
+        <v>49</v>
+      </c>
+      <c r="E70" t="s">
+        <v>45</v>
+      </c>
+      <c r="F70" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="B71" t="s">
+        <v>169</v>
+      </c>
+      <c r="C71" t="s">
+        <v>41</v>
+      </c>
+      <c r="D71" t="s">
+        <v>44</v>
+      </c>
+      <c r="E71" t="s">
+        <v>45</v>
+      </c>
+      <c r="F71" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="B72" t="s">
+        <v>170</v>
+      </c>
+      <c r="C72" t="s">
+        <v>41</v>
+      </c>
+      <c r="D72" t="s">
+        <v>44</v>
+      </c>
+      <c r="E72" t="s">
+        <v>45</v>
+      </c>
+      <c r="F72" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="B73" t="s">
+        <v>171</v>
+      </c>
+      <c r="C73" t="s">
+        <v>41</v>
+      </c>
+      <c r="D73" t="s">
+        <v>44</v>
+      </c>
+      <c r="E73" t="s">
+        <v>45</v>
+      </c>
+      <c r="F73" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="B74" t="s">
+        <v>172</v>
+      </c>
+      <c r="C74" t="s">
+        <v>41</v>
+      </c>
+      <c r="D74" t="s">
+        <v>44</v>
+      </c>
+      <c r="E74" t="s">
+        <v>45</v>
+      </c>
+      <c r="F74" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="B75" t="s">
+        <v>173</v>
+      </c>
+      <c r="C75" t="s">
+        <v>41</v>
+      </c>
+      <c r="D75" t="s">
+        <v>44</v>
+      </c>
+      <c r="E75" t="s">
+        <v>45</v>
+      </c>
+      <c r="F75" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="B76" t="s">
+        <v>174</v>
+      </c>
+      <c r="C76" t="s">
+        <v>41</v>
+      </c>
+      <c r="D76" t="s">
+        <v>44</v>
+      </c>
+      <c r="E76" t="s">
+        <v>45</v>
+      </c>
+      <c r="F76" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="B77" t="s">
+        <v>175</v>
+      </c>
+      <c r="C77" t="s">
+        <v>41</v>
+      </c>
+      <c r="D77" t="s">
+        <v>44</v>
+      </c>
+      <c r="E77" t="s">
+        <v>45</v>
+      </c>
+      <c r="F77" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="B78" t="s">
+        <v>176</v>
+      </c>
+      <c r="C78" t="s">
+        <v>41</v>
+      </c>
+      <c r="D78" t="s">
+        <v>49</v>
+      </c>
+      <c r="E78" t="s">
+        <v>45</v>
+      </c>
+      <c r="F78" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="B79" t="s">
+        <v>177</v>
+      </c>
+      <c r="C79" t="s">
+        <v>41</v>
+      </c>
+      <c r="D79" t="s">
+        <v>44</v>
+      </c>
+      <c r="E79" t="s">
+        <v>45</v>
+      </c>
+      <c r="F79" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="B80" t="s">
+        <v>178</v>
+      </c>
+      <c r="C80" t="s">
+        <v>41</v>
+      </c>
+      <c r="D80" t="s">
+        <v>49</v>
+      </c>
+      <c r="E80" t="s">
+        <v>45</v>
+      </c>
+      <c r="F80" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="B81" t="s">
+        <v>179</v>
+      </c>
+      <c r="C81" t="s">
+        <v>41</v>
+      </c>
+      <c r="D81" t="s">
+        <v>44</v>
+      </c>
+      <c r="E81" t="s">
+        <v>45</v>
+      </c>
+      <c r="F81" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="B82" t="s">
+        <v>180</v>
+      </c>
+      <c r="C82" t="s">
+        <v>41</v>
+      </c>
+      <c r="D82" t="s">
+        <v>44</v>
+      </c>
+      <c r="E82" t="s">
+        <v>45</v>
+      </c>
+      <c r="F82" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="B83" t="s">
+        <v>181</v>
+      </c>
+      <c r="C83" t="s">
+        <v>41</v>
+      </c>
+      <c r="D83" t="s">
+        <v>44</v>
+      </c>
+      <c r="E83" t="s">
+        <v>45</v>
+      </c>
+      <c r="F83" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="B84" t="s">
+        <v>182</v>
+      </c>
+      <c r="C84" t="s">
+        <v>41</v>
+      </c>
+      <c r="D84" t="s">
+        <v>44</v>
+      </c>
+      <c r="E84" t="s">
+        <v>45</v>
+      </c>
+      <c r="F84" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="B85" t="s">
+        <v>183</v>
+      </c>
+      <c r="C85" t="s">
+        <v>41</v>
+      </c>
+      <c r="D85" t="s">
+        <v>44</v>
+      </c>
+      <c r="E85" t="s">
+        <v>45</v>
+      </c>
+      <c r="F85" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="B86" t="s">
+        <v>184</v>
+      </c>
+      <c r="C86" t="s">
+        <v>41</v>
+      </c>
+      <c r="D86" t="s">
+        <v>44</v>
+      </c>
+      <c r="E86" t="s">
+        <v>45</v>
+      </c>
+      <c r="F86" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="B87" t="s">
+        <v>185</v>
+      </c>
+      <c r="C87" t="s">
+        <v>41</v>
+      </c>
+      <c r="D87" t="s">
+        <v>44</v>
+      </c>
+      <c r="E87" t="s">
+        <v>45</v>
+      </c>
+      <c r="F87" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="B88" t="s">
+        <v>186</v>
+      </c>
+      <c r="C88" t="s">
+        <v>41</v>
+      </c>
+      <c r="D88" t="s">
+        <v>44</v>
+      </c>
+      <c r="E88" t="s">
+        <v>45</v>
+      </c>
+      <c r="F88" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="B89" t="s">
+        <v>187</v>
+      </c>
+      <c r="C89" t="s">
+        <v>41</v>
+      </c>
+      <c r="D89" t="s">
+        <v>44</v>
+      </c>
+      <c r="E89" t="s">
+        <v>45</v>
+      </c>
+      <c r="F89" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="B90" t="s">
+        <v>188</v>
+      </c>
+      <c r="C90" t="s">
+        <v>41</v>
+      </c>
+      <c r="D90" t="s">
+        <v>49</v>
+      </c>
+      <c r="E90" t="s">
+        <v>45</v>
+      </c>
+      <c r="F90" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="B91" t="s">
+        <v>189</v>
+      </c>
+      <c r="C91" t="s">
+        <v>41</v>
+      </c>
+      <c r="D91" t="s">
+        <v>44</v>
+      </c>
+      <c r="E91" t="s">
+        <v>45</v>
+      </c>
+      <c r="F91" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="B92" t="s">
+        <v>190</v>
+      </c>
+      <c r="C92" t="s">
+        <v>41</v>
+      </c>
+      <c r="D92" t="s">
+        <v>49</v>
+      </c>
+      <c r="E92" t="s">
+        <v>45</v>
+      </c>
+      <c r="F92" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="B93" t="s">
+        <v>191</v>
+      </c>
+      <c r="C93" t="s">
+        <v>41</v>
+      </c>
+      <c r="D93" t="s">
+        <v>44</v>
+      </c>
+      <c r="E93" t="s">
+        <v>45</v>
+      </c>
+      <c r="F93" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="B94" t="s">
+        <v>192</v>
+      </c>
+      <c r="C94" t="s">
+        <v>41</v>
+      </c>
+      <c r="D94" t="s">
+        <v>44</v>
+      </c>
+      <c r="E94" t="s">
+        <v>45</v>
+      </c>
+      <c r="F94" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="B95" t="s">
+        <v>193</v>
+      </c>
+      <c r="C95" t="s">
+        <v>41</v>
+      </c>
+      <c r="D95" t="s">
+        <v>44</v>
+      </c>
+      <c r="E95" t="s">
+        <v>45</v>
+      </c>
+      <c r="F95" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="B96" t="s">
+        <v>194</v>
+      </c>
+      <c r="C96" t="s">
+        <v>41</v>
+      </c>
+      <c r="D96" t="s">
+        <v>44</v>
+      </c>
+      <c r="E96" t="s">
+        <v>45</v>
+      </c>
+      <c r="F96" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="B97" t="s">
+        <v>195</v>
+      </c>
+      <c r="C97" t="s">
+        <v>41</v>
+      </c>
+      <c r="D97" t="s">
+        <v>44</v>
+      </c>
+      <c r="E97" t="s">
+        <v>45</v>
+      </c>
+      <c r="F97" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="B98" t="s">
+        <v>196</v>
+      </c>
+      <c r="C98" t="s">
+        <v>41</v>
+      </c>
+      <c r="D98" t="s">
+        <v>44</v>
+      </c>
+      <c r="E98" t="s">
+        <v>45</v>
+      </c>
+      <c r="F98" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="B99" t="s">
+        <v>197</v>
+      </c>
+      <c r="C99" t="s">
+        <v>41</v>
+      </c>
+      <c r="D99" t="s">
+        <v>44</v>
+      </c>
+      <c r="E99" t="s">
+        <v>45</v>
+      </c>
+      <c r="F99" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="B100" t="s">
+        <v>198</v>
+      </c>
+      <c r="C100" t="s">
+        <v>41</v>
+      </c>
+      <c r="D100" t="s">
+        <v>44</v>
+      </c>
+      <c r="E100" t="s">
+        <v>45</v>
+      </c>
+      <c r="F100" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="B101" t="s">
+        <v>199</v>
+      </c>
+      <c r="C101" t="s">
+        <v>41</v>
+      </c>
+      <c r="D101" t="s">
+        <v>44</v>
+      </c>
+      <c r="E101" t="s">
+        <v>45</v>
+      </c>
+      <c r="F101" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="B102" t="s">
+        <v>200</v>
+      </c>
+      <c r="C102" t="s">
+        <v>41</v>
+      </c>
+      <c r="D102" t="s">
+        <v>49</v>
+      </c>
+      <c r="E102" t="s">
+        <v>45</v>
+      </c>
+      <c r="F102" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="B103" t="s">
+        <v>201</v>
+      </c>
+      <c r="C103" t="s">
+        <v>41</v>
+      </c>
+      <c r="D103" t="s">
+        <v>44</v>
+      </c>
+      <c r="E103" t="s">
+        <v>45</v>
+      </c>
+      <c r="F103" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="B104" t="s">
+        <v>231</v>
+      </c>
+      <c r="C104" t="s">
+        <v>38</v>
+      </c>
+      <c r="D104" t="s">
+        <v>44</v>
+      </c>
+      <c r="E104" t="s">
+        <v>45</v>
+      </c>
+      <c r="F104" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="B105" t="s">
+        <v>233</v>
+      </c>
+      <c r="C105" t="s">
+        <v>52</v>
+      </c>
+      <c r="D105" t="s">
+        <v>44</v>
+      </c>
+      <c r="E105" t="s">
+        <v>45</v>
+      </c>
+      <c r="F105" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="B106" t="s">
+        <v>235</v>
+      </c>
+      <c r="C106" t="s">
+        <v>226</v>
+      </c>
+      <c r="D106" t="s">
+        <v>44</v>
+      </c>
+      <c r="E106" t="s">
+        <v>45</v>
+      </c>
+      <c r="F106" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="B107" t="s">
+        <v>237</v>
+      </c>
+      <c r="C107" t="s">
+        <v>103</v>
+      </c>
+      <c r="D107" t="s">
+        <v>44</v>
+      </c>
+      <c r="E107" t="s">
+        <v>45</v>
+      </c>
+      <c r="F107" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="B108" t="s">
+        <v>238</v>
+      </c>
+      <c r="C108" t="s">
+        <v>103</v>
+      </c>
+      <c r="D108" t="s">
+        <v>44</v>
+      </c>
+      <c r="E108" t="s">
+        <v>45</v>
+      </c>
+      <c r="F108" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="B109" t="s">
+        <v>239</v>
+      </c>
+      <c r="C109" t="s">
+        <v>103</v>
+      </c>
+      <c r="D109" t="s">
+        <v>44</v>
+      </c>
+      <c r="E109" t="s">
+        <v>45</v>
+      </c>
+      <c r="F109" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="B110" t="s">
+        <v>240</v>
+      </c>
+      <c r="C110" t="s">
+        <v>226</v>
+      </c>
+      <c r="D110" t="s">
+        <v>44</v>
+      </c>
+      <c r="E110" t="s">
+        <v>45</v>
+      </c>
+      <c r="F110" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="B111" t="s">
+        <v>242</v>
+      </c>
+      <c r="C111" t="s">
+        <v>103</v>
+      </c>
+      <c r="D111" t="s">
+        <v>44</v>
+      </c>
+      <c r="E111" t="s">
+        <v>45</v>
+      </c>
+      <c r="F111" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="B112" t="s">
+        <v>243</v>
+      </c>
+      <c r="C112" t="s">
+        <v>103</v>
+      </c>
+      <c r="D112" t="s">
+        <v>44</v>
+      </c>
+      <c r="E112" t="s">
+        <v>45</v>
+      </c>
+      <c r="F112" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="B113" t="s">
+        <v>244</v>
+      </c>
+      <c r="C113" t="s">
+        <v>103</v>
+      </c>
+      <c r="D113" t="s">
+        <v>44</v>
+      </c>
+      <c r="E113" t="s">
+        <v>45</v>
+      </c>
+      <c r="F113" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="B114" t="s">
+        <v>245</v>
+      </c>
+      <c r="C114" t="s">
+        <v>226</v>
+      </c>
+      <c r="D114" t="s">
+        <v>44</v>
+      </c>
+      <c r="E114" t="s">
+        <v>45</v>
+      </c>
+      <c r="F114" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="B115" t="s">
+        <v>247</v>
+      </c>
+      <c r="C115" t="s">
+        <v>103</v>
+      </c>
+      <c r="D115" t="s">
+        <v>44</v>
+      </c>
+      <c r="E115" t="s">
+        <v>45</v>
+      </c>
+      <c r="F115" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="B116" t="s">
+        <v>248</v>
+      </c>
+      <c r="C116" t="s">
+        <v>103</v>
+      </c>
+      <c r="D116" t="s">
+        <v>44</v>
+      </c>
+      <c r="E116" t="s">
+        <v>45</v>
+      </c>
+      <c r="F116" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="B117" t="s">
+        <v>249</v>
+      </c>
+      <c r="C117" t="s">
+        <v>103</v>
+      </c>
+      <c r="D117" t="s">
+        <v>44</v>
+      </c>
+      <c r="E117" t="s">
+        <v>45</v>
+      </c>
+      <c r="F117" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="B118" t="s">
+        <v>250</v>
+      </c>
+      <c r="C118" t="s">
+        <v>226</v>
+      </c>
+      <c r="D118" t="s">
+        <v>44</v>
+      </c>
+      <c r="E118" t="s">
+        <v>45</v>
+      </c>
+      <c r="F118" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="B119" t="s">
+        <v>252</v>
+      </c>
+      <c r="C119" t="s">
+        <v>103</v>
+      </c>
+      <c r="D119" t="s">
+        <v>44</v>
+      </c>
+      <c r="E119" t="s">
+        <v>45</v>
+      </c>
+      <c r="F119" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="B120" t="s">
+        <v>253</v>
+      </c>
+      <c r="C120" t="s">
+        <v>103</v>
+      </c>
+      <c r="D120" t="s">
+        <v>44</v>
+      </c>
+      <c r="E120" t="s">
+        <v>45</v>
+      </c>
+      <c r="F120" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="B121" t="s">
+        <v>254</v>
+      </c>
+      <c r="C121" t="s">
+        <v>103</v>
+      </c>
+      <c r="D121" t="s">
+        <v>44</v>
+      </c>
+      <c r="E121" t="s">
+        <v>45</v>
+      </c>
+      <c r="F121" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="B122" t="s">
+        <v>255</v>
+      </c>
+      <c r="C122" t="s">
+        <v>226</v>
+      </c>
+      <c r="D122" t="s">
+        <v>44</v>
+      </c>
+      <c r="E122" t="s">
+        <v>45</v>
+      </c>
+      <c r="F122" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="B123" t="s">
+        <v>257</v>
+      </c>
+      <c r="C123" t="s">
+        <v>103</v>
+      </c>
+      <c r="D123" t="s">
+        <v>44</v>
+      </c>
+      <c r="E123" t="s">
+        <v>45</v>
+      </c>
+      <c r="F123" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="B124" t="s">
+        <v>258</v>
+      </c>
+      <c r="C124" t="s">
+        <v>103</v>
+      </c>
+      <c r="D124" t="s">
+        <v>44</v>
+      </c>
+      <c r="E124" t="s">
+        <v>45</v>
+      </c>
+      <c r="F124" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="B125" t="s">
+        <v>259</v>
+      </c>
+      <c r="C125" t="s">
+        <v>103</v>
+      </c>
+      <c r="D125" t="s">
+        <v>44</v>
+      </c>
+      <c r="E125" t="s">
+        <v>45</v>
+      </c>
+      <c r="F125" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="B126" t="s">
+        <v>260</v>
+      </c>
+      <c r="C126" t="s">
+        <v>226</v>
+      </c>
+      <c r="D126" t="s">
+        <v>44</v>
+      </c>
+      <c r="E126" t="s">
+        <v>45</v>
+      </c>
+      <c r="F126" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="B127" t="s">
+        <v>262</v>
+      </c>
+      <c r="C127" t="s">
+        <v>103</v>
+      </c>
+      <c r="D127" t="s">
+        <v>44</v>
+      </c>
+      <c r="E127" t="s">
+        <v>45</v>
+      </c>
+      <c r="F127" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="B128" t="s">
+        <v>263</v>
+      </c>
+      <c r="C128" t="s">
+        <v>103</v>
+      </c>
+      <c r="D128" t="s">
+        <v>44</v>
+      </c>
+      <c r="E128" t="s">
+        <v>45</v>
+      </c>
+      <c r="F128" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="B129" t="s">
+        <v>264</v>
+      </c>
+      <c r="C129" t="s">
+        <v>103</v>
+      </c>
+      <c r="D129" t="s">
+        <v>44</v>
+      </c>
+      <c r="E129" t="s">
+        <v>45</v>
+      </c>
+      <c r="F129" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="B130" t="s">
+        <v>265</v>
+      </c>
+      <c r="C130" t="s">
+        <v>226</v>
+      </c>
+      <c r="D130" t="s">
+        <v>44</v>
+      </c>
+      <c r="E130" t="s">
+        <v>45</v>
+      </c>
+      <c r="F130" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="B131" t="s">
+        <v>267</v>
+      </c>
+      <c r="C131" t="s">
+        <v>103</v>
+      </c>
+      <c r="D131" t="s">
+        <v>44</v>
+      </c>
+      <c r="E131" t="s">
+        <v>45</v>
+      </c>
+      <c r="F131" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="B132" t="s">
+        <v>268</v>
+      </c>
+      <c r="C132" t="s">
+        <v>103</v>
+      </c>
+      <c r="D132" t="s">
+        <v>44</v>
+      </c>
+      <c r="E132" t="s">
+        <v>45</v>
+      </c>
+      <c r="F132" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="B133" t="s">
+        <v>269</v>
+      </c>
+      <c r="C133" t="s">
+        <v>103</v>
+      </c>
+      <c r="D133" t="s">
+        <v>44</v>
+      </c>
+      <c r="E133" t="s">
+        <v>45</v>
+      </c>
+      <c r="F133" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="B134" t="s">
+        <v>270</v>
+      </c>
+      <c r="C134" t="s">
+        <v>226</v>
+      </c>
+      <c r="D134" t="s">
+        <v>44</v>
+      </c>
+      <c r="E134" t="s">
+        <v>45</v>
+      </c>
+      <c r="F134" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="B135" t="s">
+        <v>272</v>
+      </c>
+      <c r="C135" t="s">
+        <v>103</v>
+      </c>
+      <c r="D135" t="s">
+        <v>44</v>
+      </c>
+      <c r="E135" t="s">
+        <v>45</v>
+      </c>
+      <c r="F135" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="B136" t="s">
+        <v>273</v>
+      </c>
+      <c r="C136" t="s">
+        <v>103</v>
+      </c>
+      <c r="D136" t="s">
+        <v>44</v>
+      </c>
+      <c r="E136" t="s">
+        <v>45</v>
+      </c>
+      <c r="F136" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="B137" t="s">
+        <v>274</v>
+      </c>
+      <c r="C137" t="s">
+        <v>103</v>
+      </c>
+      <c r="D137" t="s">
+        <v>44</v>
+      </c>
+      <c r="E137" t="s">
+        <v>45</v>
+      </c>
+      <c r="F137" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="B138" t="s">
+        <v>275</v>
+      </c>
+      <c r="C138" t="s">
+        <v>226</v>
+      </c>
+      <c r="D138" t="s">
+        <v>44</v>
+      </c>
+      <c r="E138" t="s">
+        <v>45</v>
+      </c>
+      <c r="F138" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="B139" t="s">
+        <v>277</v>
+      </c>
+      <c r="C139" t="s">
+        <v>103</v>
+      </c>
+      <c r="D139" t="s">
+        <v>44</v>
+      </c>
+      <c r="E139" t="s">
+        <v>45</v>
+      </c>
+      <c r="F139" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="B140" t="s">
+        <v>278</v>
+      </c>
+      <c r="C140" t="s">
+        <v>103</v>
+      </c>
+      <c r="D140" t="s">
+        <v>44</v>
+      </c>
+      <c r="E140" t="s">
+        <v>45</v>
+      </c>
+      <c r="F140" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="B141" t="s">
+        <v>279</v>
+      </c>
+      <c r="C141" t="s">
+        <v>103</v>
+      </c>
+      <c r="D141" t="s">
+        <v>44</v>
+      </c>
+      <c r="E141" t="s">
+        <v>45</v>
+      </c>
+      <c r="F141" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="B142" t="s">
+        <v>280</v>
+      </c>
+      <c r="C142" t="s">
+        <v>226</v>
+      </c>
+      <c r="D142" t="s">
+        <v>44</v>
+      </c>
+      <c r="E142" t="s">
+        <v>45</v>
+      </c>
+      <c r="F142" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="B143" t="s">
+        <v>282</v>
+      </c>
+      <c r="C143" t="s">
+        <v>103</v>
+      </c>
+      <c r="D143" t="s">
+        <v>44</v>
+      </c>
+      <c r="E143" t="s">
+        <v>45</v>
+      </c>
+      <c r="F143" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="B144" t="s">
+        <v>283</v>
+      </c>
+      <c r="C144" t="s">
+        <v>103</v>
+      </c>
+      <c r="D144" t="s">
+        <v>44</v>
+      </c>
+      <c r="E144" t="s">
+        <v>45</v>
+      </c>
+      <c r="F144" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="B145" t="s">
+        <v>284</v>
+      </c>
+      <c r="C145" t="s">
+        <v>103</v>
+      </c>
+      <c r="D145" t="s">
+        <v>44</v>
+      </c>
+      <c r="E145" t="s">
+        <v>45</v>
+      </c>
+      <c r="F145" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="B146" t="s">
+        <v>285</v>
+      </c>
+      <c r="C146" t="s">
+        <v>226</v>
+      </c>
+      <c r="D146" t="s">
+        <v>44</v>
+      </c>
+      <c r="E146" t="s">
+        <v>45</v>
+      </c>
+      <c r="F146" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="B147" t="s">
+        <v>287</v>
+      </c>
+      <c r="C147" t="s">
+        <v>103</v>
+      </c>
+      <c r="D147" t="s">
+        <v>44</v>
+      </c>
+      <c r="E147" t="s">
+        <v>45</v>
+      </c>
+      <c r="F147" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="B148" t="s">
+        <v>288</v>
+      </c>
+      <c r="C148" t="s">
+        <v>103</v>
+      </c>
+      <c r="D148" t="s">
+        <v>44</v>
+      </c>
+      <c r="E148" t="s">
+        <v>45</v>
+      </c>
+      <c r="F148" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="B149" t="s">
+        <v>289</v>
+      </c>
+      <c r="C149" t="s">
+        <v>103</v>
+      </c>
+      <c r="D149" t="s">
+        <v>44</v>
+      </c>
+      <c r="E149" t="s">
+        <v>45</v>
+      </c>
+      <c r="F149" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="B150" t="s">
+        <v>290</v>
+      </c>
+      <c r="C150" t="s">
+        <v>226</v>
+      </c>
+      <c r="D150" t="s">
+        <v>44</v>
+      </c>
+      <c r="E150" t="s">
+        <v>45</v>
+      </c>
+      <c r="F150" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="B151" t="s">
+        <v>292</v>
+      </c>
+      <c r="C151" t="s">
+        <v>103</v>
+      </c>
+      <c r="D151" t="s">
+        <v>44</v>
+      </c>
+      <c r="E151" t="s">
+        <v>45</v>
+      </c>
+      <c r="F151" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="B152" t="s">
+        <v>293</v>
+      </c>
+      <c r="C152" t="s">
+        <v>103</v>
+      </c>
+      <c r="D152" t="s">
+        <v>44</v>
+      </c>
+      <c r="E152" t="s">
+        <v>45</v>
+      </c>
+      <c r="F152" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="B153" t="s">
+        <v>294</v>
+      </c>
+      <c r="C153" t="s">
+        <v>103</v>
+      </c>
+      <c r="D153" t="s">
+        <v>44</v>
+      </c>
+      <c r="E153" t="s">
+        <v>45</v>
+      </c>
+      <c r="F153" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="B154" t="s">
+        <v>295</v>
+      </c>
+      <c r="C154" t="s">
+        <v>226</v>
+      </c>
+      <c r="D154" t="s">
+        <v>44</v>
+      </c>
+      <c r="E154" t="s">
+        <v>45</v>
+      </c>
+      <c r="F154" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="B155" t="s">
+        <v>297</v>
+      </c>
+      <c r="C155" t="s">
+        <v>103</v>
+      </c>
+      <c r="D155" t="s">
+        <v>44</v>
+      </c>
+      <c r="E155" t="s">
+        <v>45</v>
+      </c>
+      <c r="F155" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="B156" t="s">
+        <v>298</v>
+      </c>
+      <c r="C156" t="s">
+        <v>103</v>
+      </c>
+      <c r="D156" t="s">
+        <v>44</v>
+      </c>
+      <c r="E156" t="s">
+        <v>45</v>
+      </c>
+      <c r="F156" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="B157" t="s">
+        <v>299</v>
+      </c>
+      <c r="C157" t="s">
+        <v>103</v>
+      </c>
+      <c r="D157" t="s">
+        <v>44</v>
+      </c>
+      <c r="E157" t="s">
+        <v>45</v>
+      </c>
+      <c r="F157" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="B158" t="s">
+        <v>300</v>
+      </c>
+      <c r="C158" t="s">
+        <v>226</v>
+      </c>
+      <c r="D158" t="s">
+        <v>44</v>
+      </c>
+      <c r="E158" t="s">
+        <v>45</v>
+      </c>
+      <c r="F158" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="B159" t="s">
+        <v>302</v>
+      </c>
+      <c r="C159" t="s">
+        <v>103</v>
+      </c>
+      <c r="D159" t="s">
+        <v>44</v>
+      </c>
+      <c r="E159" t="s">
+        <v>45</v>
+      </c>
+      <c r="F159" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="B160" t="s">
+        <v>303</v>
+      </c>
+      <c r="C160" t="s">
+        <v>103</v>
+      </c>
+      <c r="D160" t="s">
+        <v>44</v>
+      </c>
+      <c r="E160" t="s">
+        <v>45</v>
+      </c>
+      <c r="F160" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="B161" t="s">
+        <v>304</v>
+      </c>
+      <c r="C161" t="s">
+        <v>103</v>
+      </c>
+      <c r="D161" t="s">
+        <v>44</v>
+      </c>
+      <c r="E161" t="s">
+        <v>45</v>
+      </c>
+      <c r="F161" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="B162" t="s">
+        <v>305</v>
+      </c>
+      <c r="C162" t="s">
+        <v>226</v>
+      </c>
+      <c r="D162" t="s">
+        <v>44</v>
+      </c>
+      <c r="E162" t="s">
+        <v>45</v>
+      </c>
+      <c r="F162" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="B163" t="s">
+        <v>306</v>
+      </c>
+      <c r="C163" t="s">
+        <v>103</v>
+      </c>
+      <c r="D163" t="s">
+        <v>44</v>
+      </c>
+      <c r="E163" t="s">
+        <v>45</v>
+      </c>
+      <c r="F163" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="B164" t="s">
+        <v>307</v>
+      </c>
+      <c r="C164" t="s">
+        <v>103</v>
+      </c>
+      <c r="D164" t="s">
+        <v>44</v>
+      </c>
+      <c r="E164" t="s">
+        <v>45</v>
+      </c>
+      <c r="F164" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="B165" t="s">
+        <v>308</v>
+      </c>
+      <c r="C165" t="s">
+        <v>103</v>
+      </c>
+      <c r="D165" t="s">
+        <v>44</v>
+      </c>
+      <c r="E165" t="s">
+        <v>45</v>
+      </c>
+      <c r="F165" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="B166" t="s">
+        <v>309</v>
+      </c>
+      <c r="C166" t="s">
+        <v>226</v>
+      </c>
+      <c r="D166" t="s">
+        <v>44</v>
+      </c>
+      <c r="E166" t="s">
+        <v>45</v>
+      </c>
+      <c r="F166" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="B167" t="s">
+        <v>310</v>
+      </c>
+      <c r="C167" t="s">
+        <v>103</v>
+      </c>
+      <c r="D167" t="s">
+        <v>44</v>
+      </c>
+      <c r="E167" t="s">
+        <v>45</v>
+      </c>
+      <c r="F167" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="B168" t="s">
+        <v>311</v>
+      </c>
+      <c r="C168" t="s">
+        <v>103</v>
+      </c>
+      <c r="D168" t="s">
+        <v>44</v>
+      </c>
+      <c r="E168" t="s">
+        <v>45</v>
+      </c>
+      <c r="F168" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="B169" t="s">
+        <v>312</v>
+      </c>
+      <c r="C169" t="s">
+        <v>103</v>
+      </c>
+      <c r="D169" t="s">
+        <v>44</v>
+      </c>
+      <c r="E169" t="s">
+        <v>45</v>
+      </c>
+      <c r="F169" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="B170" t="s">
+        <v>313</v>
+      </c>
+      <c r="C170" t="s">
+        <v>226</v>
+      </c>
+      <c r="D170" t="s">
+        <v>44</v>
+      </c>
+      <c r="E170" t="s">
+        <v>45</v>
+      </c>
+      <c r="F170" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="B171" t="s">
+        <v>314</v>
+      </c>
+      <c r="C171" t="s">
+        <v>103</v>
+      </c>
+      <c r="D171" t="s">
+        <v>44</v>
+      </c>
+      <c r="E171" t="s">
+        <v>45</v>
+      </c>
+      <c r="F171" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="B172" t="s">
+        <v>315</v>
+      </c>
+      <c r="C172" t="s">
+        <v>103</v>
+      </c>
+      <c r="D172" t="s">
+        <v>44</v>
+      </c>
+      <c r="E172" t="s">
+        <v>45</v>
+      </c>
+      <c r="F172" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="B173" t="s">
+        <v>316</v>
+      </c>
+      <c r="C173" t="s">
+        <v>103</v>
+      </c>
+      <c r="D173" t="s">
+        <v>44</v>
+      </c>
+      <c r="E173" t="s">
+        <v>45</v>
+      </c>
+      <c r="F173" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="B174" t="s">
+        <v>317</v>
+      </c>
+      <c r="C174" t="s">
+        <v>226</v>
+      </c>
+      <c r="D174" t="s">
+        <v>44</v>
+      </c>
+      <c r="E174" t="s">
+        <v>45</v>
+      </c>
+      <c r="F174" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="B175" t="s">
+        <v>318</v>
+      </c>
+      <c r="C175" t="s">
+        <v>103</v>
+      </c>
+      <c r="D175" t="s">
+        <v>44</v>
+      </c>
+      <c r="E175" t="s">
+        <v>45</v>
+      </c>
+      <c r="F175" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="B176" t="s">
+        <v>319</v>
+      </c>
+      <c r="C176" t="s">
+        <v>103</v>
+      </c>
+      <c r="D176" t="s">
+        <v>44</v>
+      </c>
+      <c r="E176" t="s">
+        <v>45</v>
+      </c>
+      <c r="F176" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="B177" t="s">
+        <v>320</v>
+      </c>
+      <c r="C177" t="s">
+        <v>103</v>
+      </c>
+      <c r="D177" t="s">
+        <v>44</v>
+      </c>
+      <c r="E177" t="s">
+        <v>45</v>
+      </c>
+      <c r="F177" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="B178" t="s">
+        <v>321</v>
+      </c>
+      <c r="C178" t="s">
+        <v>226</v>
+      </c>
+      <c r="D178" t="s">
+        <v>44</v>
+      </c>
+      <c r="E178" t="s">
+        <v>45</v>
+      </c>
+      <c r="F178" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="B179" t="s">
+        <v>322</v>
+      </c>
+      <c r="C179" t="s">
+        <v>103</v>
+      </c>
+      <c r="D179" t="s">
+        <v>44</v>
+      </c>
+      <c r="E179" t="s">
+        <v>45</v>
+      </c>
+      <c r="F179" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="B180" t="s">
+        <v>323</v>
+      </c>
+      <c r="C180" t="s">
+        <v>103</v>
+      </c>
+      <c r="D180" t="s">
+        <v>44</v>
+      </c>
+      <c r="E180" t="s">
+        <v>45</v>
+      </c>
+      <c r="F180" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="B181" t="s">
+        <v>324</v>
+      </c>
+      <c r="C181" t="s">
+        <v>103</v>
+      </c>
+      <c r="D181" t="s">
+        <v>44</v>
+      </c>
+      <c r="E181" t="s">
+        <v>45</v>
+      </c>
+      <c r="F181" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="B182" t="s">
+        <v>325</v>
+      </c>
+      <c r="C182" t="s">
+        <v>226</v>
+      </c>
+      <c r="D182" t="s">
+        <v>44</v>
+      </c>
+      <c r="E182" t="s">
+        <v>45</v>
+      </c>
+      <c r="F182" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="B183" t="s">
+        <v>326</v>
+      </c>
+      <c r="C183" t="s">
+        <v>103</v>
+      </c>
+      <c r="D183" t="s">
+        <v>44</v>
+      </c>
+      <c r="E183" t="s">
+        <v>45</v>
+      </c>
+      <c r="F183" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="B184" t="s">
+        <v>327</v>
+      </c>
+      <c r="C184" t="s">
+        <v>103</v>
+      </c>
+      <c r="D184" t="s">
+        <v>44</v>
+      </c>
+      <c r="E184" t="s">
+        <v>45</v>
+      </c>
+      <c r="F184" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="B185" t="s">
+        <v>328</v>
+      </c>
+      <c r="C185" t="s">
+        <v>103</v>
+      </c>
+      <c r="D185" t="s">
+        <v>44</v>
+      </c>
+      <c r="E185" t="s">
+        <v>45</v>
+      </c>
+      <c r="F185" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="B186" t="s">
+        <v>329</v>
+      </c>
+      <c r="C186" t="s">
+        <v>226</v>
+      </c>
+      <c r="D186" t="s">
+        <v>44</v>
+      </c>
+      <c r="E186" t="s">
+        <v>45</v>
+      </c>
+      <c r="F186" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="B187" t="s">
+        <v>330</v>
+      </c>
+      <c r="C187" t="s">
+        <v>103</v>
+      </c>
+      <c r="D187" t="s">
+        <v>44</v>
+      </c>
+      <c r="E187" t="s">
+        <v>45</v>
+      </c>
+      <c r="F187" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="B188" t="s">
+        <v>331</v>
+      </c>
+      <c r="C188" t="s">
+        <v>103</v>
+      </c>
+      <c r="D188" t="s">
+        <v>44</v>
+      </c>
+      <c r="E188" t="s">
+        <v>45</v>
+      </c>
+      <c r="F188" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="B189" t="s">
+        <v>332</v>
+      </c>
+      <c r="C189" t="s">
+        <v>103</v>
+      </c>
+      <c r="D189" t="s">
+        <v>44</v>
+      </c>
+      <c r="E189" t="s">
+        <v>45</v>
+      </c>
+      <c r="F189" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="B190" t="s">
+        <v>333</v>
+      </c>
+      <c r="C190" t="s">
+        <v>226</v>
+      </c>
+      <c r="D190" t="s">
+        <v>44</v>
+      </c>
+      <c r="E190" t="s">
+        <v>45</v>
+      </c>
+      <c r="F190" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="B191" t="s">
+        <v>334</v>
+      </c>
+      <c r="C191" t="s">
+        <v>103</v>
+      </c>
+      <c r="D191" t="s">
+        <v>44</v>
+      </c>
+      <c r="E191" t="s">
+        <v>45</v>
+      </c>
+      <c r="F191" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="B192" t="s">
+        <v>335</v>
+      </c>
+      <c r="C192" t="s">
+        <v>103</v>
+      </c>
+      <c r="D192" t="s">
+        <v>44</v>
+      </c>
+      <c r="E192" t="s">
+        <v>45</v>
+      </c>
+      <c r="F192" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="B193" t="s">
+        <v>336</v>
+      </c>
+      <c r="C193" t="s">
+        <v>103</v>
+      </c>
+      <c r="D193" t="s">
+        <v>44</v>
+      </c>
+      <c r="E193" t="s">
+        <v>45</v>
+      </c>
+      <c r="F193" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="B194" t="s">
+        <v>337</v>
+      </c>
+      <c r="C194" t="s">
+        <v>226</v>
+      </c>
+      <c r="D194" t="s">
+        <v>44</v>
+      </c>
+      <c r="E194" t="s">
+        <v>45</v>
+      </c>
+      <c r="F194" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="B195" t="s">
+        <v>338</v>
+      </c>
+      <c r="C195" t="s">
+        <v>103</v>
+      </c>
+      <c r="D195" t="s">
+        <v>44</v>
+      </c>
+      <c r="E195" t="s">
+        <v>45</v>
+      </c>
+      <c r="F195" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="B196" t="s">
+        <v>339</v>
+      </c>
+      <c r="C196" t="s">
+        <v>103</v>
+      </c>
+      <c r="D196" t="s">
+        <v>44</v>
+      </c>
+      <c r="E196" t="s">
+        <v>45</v>
+      </c>
+      <c r="F196" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="B197" t="s">
+        <v>340</v>
+      </c>
+      <c r="C197" t="s">
+        <v>103</v>
+      </c>
+      <c r="D197" t="s">
+        <v>44</v>
+      </c>
+      <c r="E197" t="s">
+        <v>45</v>
+      </c>
+      <c r="F197" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="B198" t="s">
+        <v>341</v>
+      </c>
+      <c r="C198" t="s">
+        <v>226</v>
+      </c>
+      <c r="D198" t="s">
+        <v>44</v>
+      </c>
+      <c r="E198" t="s">
+        <v>45</v>
+      </c>
+      <c r="F198" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="B199" t="s">
+        <v>342</v>
+      </c>
+      <c r="C199" t="s">
+        <v>103</v>
+      </c>
+      <c r="D199" t="s">
+        <v>44</v>
+      </c>
+      <c r="E199" t="s">
+        <v>45</v>
+      </c>
+      <c r="F199" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="B200" t="s">
+        <v>343</v>
+      </c>
+      <c r="C200" t="s">
+        <v>103</v>
+      </c>
+      <c r="D200" t="s">
+        <v>44</v>
+      </c>
+      <c r="E200" t="s">
+        <v>45</v>
+      </c>
+      <c r="F200" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="B201" t="s">
+        <v>344</v>
+      </c>
+      <c r="C201" t="s">
+        <v>103</v>
+      </c>
+      <c r="D201" t="s">
+        <v>44</v>
+      </c>
+      <c r="E201" t="s">
+        <v>45</v>
+      </c>
+      <c r="F201" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="B202" t="s">
+        <v>345</v>
+      </c>
+      <c r="C202" t="s">
+        <v>226</v>
+      </c>
+      <c r="D202" t="s">
+        <v>44</v>
+      </c>
+      <c r="E202" t="s">
+        <v>45</v>
+      </c>
+      <c r="F202" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="B203" t="s">
+        <v>346</v>
+      </c>
+      <c r="C203" t="s">
+        <v>103</v>
+      </c>
+      <c r="D203" t="s">
+        <v>44</v>
+      </c>
+      <c r="E203" t="s">
+        <v>45</v>
+      </c>
+      <c r="F203" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="B204" t="s">
+        <v>347</v>
+      </c>
+      <c r="C204" t="s">
+        <v>103</v>
+      </c>
+      <c r="D204" t="s">
+        <v>44</v>
+      </c>
+      <c r="E204" t="s">
+        <v>45</v>
+      </c>
+      <c r="F204" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="B205" t="s">
+        <v>348</v>
+      </c>
+      <c r="C205" t="s">
+        <v>103</v>
+      </c>
+      <c r="D205" t="s">
+        <v>44</v>
+      </c>
+      <c r="E205" t="s">
+        <v>45</v>
+      </c>
+      <c r="F205" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="B206" t="s">
+        <v>349</v>
+      </c>
+      <c r="C206" t="s">
+        <v>226</v>
+      </c>
+      <c r="D206" t="s">
+        <v>44</v>
+      </c>
+      <c r="E206" t="s">
+        <v>45</v>
+      </c>
+      <c r="F206" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="B207" t="s">
+        <v>350</v>
+      </c>
+      <c r="C207" t="s">
+        <v>103</v>
+      </c>
+      <c r="D207" t="s">
+        <v>44</v>
+      </c>
+      <c r="E207" t="s">
+        <v>45</v>
+      </c>
+      <c r="F207" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="B208" t="s">
+        <v>351</v>
+      </c>
+      <c r="C208" t="s">
+        <v>103</v>
+      </c>
+      <c r="D208" t="s">
+        <v>44</v>
+      </c>
+      <c r="E208" t="s">
+        <v>45</v>
+      </c>
+      <c r="F208" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="B209" t="s">
+        <v>352</v>
+      </c>
+      <c r="C209" t="s">
+        <v>103</v>
+      </c>
+      <c r="D209" t="s">
+        <v>44</v>
+      </c>
+      <c r="E209" t="s">
+        <v>45</v>
+      </c>
+      <c r="F209" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="B210" t="s">
+        <v>353</v>
+      </c>
+      <c r="C210" t="s">
+        <v>226</v>
+      </c>
+      <c r="D210" t="s">
+        <v>44</v>
+      </c>
+      <c r="E210" t="s">
+        <v>45</v>
+      </c>
+      <c r="F210" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="B211" t="s">
+        <v>354</v>
+      </c>
+      <c r="C211" t="s">
+        <v>103</v>
+      </c>
+      <c r="D211" t="s">
+        <v>44</v>
+      </c>
+      <c r="E211" t="s">
+        <v>45</v>
+      </c>
+      <c r="F211" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="B212" t="s">
+        <v>355</v>
+      </c>
+      <c r="C212" t="s">
+        <v>103</v>
+      </c>
+      <c r="D212" t="s">
+        <v>44</v>
+      </c>
+      <c r="E212" t="s">
+        <v>45</v>
+      </c>
+      <c r="F212" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="B213" t="s">
+        <v>356</v>
+      </c>
+      <c r="C213" t="s">
+        <v>103</v>
+      </c>
+      <c r="D213" t="s">
+        <v>44</v>
+      </c>
+      <c r="E213" t="s">
+        <v>45</v>
+      </c>
+      <c r="F213" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="B214" t="s">
+        <v>357</v>
+      </c>
+      <c r="C214" t="s">
+        <v>226</v>
+      </c>
+      <c r="D214" t="s">
+        <v>44</v>
+      </c>
+      <c r="E214" t="s">
+        <v>45</v>
+      </c>
+      <c r="F214" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="B215" t="s">
+        <v>358</v>
+      </c>
+      <c r="C215" t="s">
+        <v>103</v>
+      </c>
+      <c r="D215" t="s">
+        <v>44</v>
+      </c>
+      <c r="E215" t="s">
+        <v>45</v>
+      </c>
+      <c r="F215" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="B216" t="s">
+        <v>359</v>
+      </c>
+      <c r="C216" t="s">
+        <v>103</v>
+      </c>
+      <c r="D216" t="s">
+        <v>44</v>
+      </c>
+      <c r="E216" t="s">
+        <v>45</v>
+      </c>
+      <c r="F216" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="B217" t="s">
+        <v>360</v>
+      </c>
+      <c r="C217" t="s">
+        <v>103</v>
+      </c>
+      <c r="D217" t="s">
+        <v>44</v>
+      </c>
+      <c r="E217" t="s">
+        <v>45</v>
+      </c>
+      <c r="F217" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/Ekran/TouchGFX/assets/texts/texts.xlsx
+++ b/Ekran/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27631" uniqueCount="894">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32150" uniqueCount="916">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -2761,6 +2761,72 @@
   <si>
     <t xml:space="preserve">OVER - VOLTAGE
 FAULT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BMS LV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId790</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId805</t>
   </si>
 </sst>
 </file>
@@ -16079,7 +16145,7 @@
         <v>45</v>
       </c>
       <c r="F695" t="s">
-        <v>892</v>
+        <v>860</v>
       </c>
     </row>
     <row r="696">
@@ -16096,7 +16162,7 @@
         <v>45</v>
       </c>
       <c r="F696" t="s">
-        <v>893</v>
+        <v>862</v>
       </c>
     </row>
     <row r="697">
@@ -16113,7 +16179,7 @@
         <v>45</v>
       </c>
       <c r="F697" t="s">
-        <v>892</v>
+        <v>860</v>
       </c>
     </row>
     <row r="698">
@@ -16130,7 +16196,7 @@
         <v>45</v>
       </c>
       <c r="F698" t="s">
-        <v>892</v>
+        <v>860</v>
       </c>
     </row>
     <row r="699">
@@ -16147,7 +16213,7 @@
         <v>45</v>
       </c>
       <c r="F699" t="s">
-        <v>893</v>
+        <v>862</v>
       </c>
     </row>
     <row r="700">
@@ -16164,7 +16230,7 @@
         <v>45</v>
       </c>
       <c r="F700" t="s">
-        <v>892</v>
+        <v>860</v>
       </c>
     </row>
     <row r="701">
@@ -16181,7 +16247,7 @@
         <v>45</v>
       </c>
       <c r="F701" t="s">
-        <v>892</v>
+        <v>860</v>
       </c>
     </row>
     <row r="702">
@@ -16198,7 +16264,7 @@
         <v>45</v>
       </c>
       <c r="F702" t="s">
-        <v>893</v>
+        <v>862</v>
       </c>
     </row>
     <row r="703">
@@ -16215,7 +16281,7 @@
         <v>45</v>
       </c>
       <c r="F703" t="s">
-        <v>892</v>
+        <v>860</v>
       </c>
     </row>
     <row r="704">
@@ -16232,7 +16298,7 @@
         <v>45</v>
       </c>
       <c r="F704" t="s">
-        <v>892</v>
+        <v>860</v>
       </c>
     </row>
     <row r="705">
@@ -16249,7 +16315,7 @@
         <v>45</v>
       </c>
       <c r="F705" t="s">
-        <v>893</v>
+        <v>862</v>
       </c>
     </row>
     <row r="706">
@@ -16266,7 +16332,7 @@
         <v>45</v>
       </c>
       <c r="F706" t="s">
-        <v>892</v>
+        <v>860</v>
       </c>
     </row>
     <row r="707">
@@ -16283,7 +16349,7 @@
         <v>45</v>
       </c>
       <c r="F707" t="s">
-        <v>892</v>
+        <v>860</v>
       </c>
     </row>
     <row r="708">
@@ -16300,7 +16366,7 @@
         <v>45</v>
       </c>
       <c r="F708" t="s">
-        <v>893</v>
+        <v>862</v>
       </c>
     </row>
     <row r="709">
@@ -16317,7 +16383,7 @@
         <v>45</v>
       </c>
       <c r="F709" t="s">
-        <v>892</v>
+        <v>860</v>
       </c>
     </row>
     <row r="710">
@@ -16334,7 +16400,7 @@
         <v>45</v>
       </c>
       <c r="F710" t="s">
-        <v>892</v>
+        <v>860</v>
       </c>
     </row>
     <row r="711">
@@ -16351,7 +16417,7 @@
         <v>45</v>
       </c>
       <c r="F711" t="s">
-        <v>893</v>
+        <v>862</v>
       </c>
     </row>
     <row r="712">
@@ -16368,7 +16434,7 @@
         <v>45</v>
       </c>
       <c r="F712" t="s">
-        <v>892</v>
+        <v>860</v>
       </c>
     </row>
     <row r="713">
@@ -16385,7 +16451,7 @@
         <v>45</v>
       </c>
       <c r="F713" t="s">
-        <v>892</v>
+        <v>860</v>
       </c>
     </row>
     <row r="714">
@@ -16402,7 +16468,7 @@
         <v>45</v>
       </c>
       <c r="F714" t="s">
-        <v>893</v>
+        <v>862</v>
       </c>
     </row>
     <row r="715">
@@ -16419,7 +16485,7 @@
         <v>45</v>
       </c>
       <c r="F715" t="s">
-        <v>892</v>
+        <v>860</v>
       </c>
     </row>
     <row r="716">
@@ -16436,7 +16502,7 @@
         <v>45</v>
       </c>
       <c r="F716" t="s">
-        <v>892</v>
+        <v>860</v>
       </c>
     </row>
     <row r="717">
@@ -16453,7 +16519,7 @@
         <v>45</v>
       </c>
       <c r="F717" t="s">
-        <v>893</v>
+        <v>862</v>
       </c>
     </row>
     <row r="718">
@@ -16470,7 +16536,7 @@
         <v>45</v>
       </c>
       <c r="F718" t="s">
-        <v>892</v>
+        <v>860</v>
       </c>
     </row>
     <row r="719">
@@ -16504,7 +16570,7 @@
         <v>45</v>
       </c>
       <c r="F720" t="s">
-        <v>892</v>
+        <v>860</v>
       </c>
     </row>
     <row r="721">
@@ -16521,7 +16587,7 @@
         <v>45</v>
       </c>
       <c r="F721" t="s">
-        <v>893</v>
+        <v>862</v>
       </c>
     </row>
     <row r="722">
@@ -16538,7 +16604,7 @@
         <v>45</v>
       </c>
       <c r="F722" t="s">
-        <v>892</v>
+        <v>860</v>
       </c>
     </row>
     <row r="723">
@@ -16555,7 +16621,7 @@
         <v>45</v>
       </c>
       <c r="F723" t="s">
-        <v>892</v>
+        <v>860</v>
       </c>
     </row>
     <row r="724">
@@ -16572,7 +16638,7 @@
         <v>45</v>
       </c>
       <c r="F724" t="s">
-        <v>893</v>
+        <v>862</v>
       </c>
     </row>
     <row r="725">
@@ -16589,7 +16655,364 @@
         <v>45</v>
       </c>
       <c r="F725" t="s">
-        <v>892</v>
+        <v>860</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="B726" t="s">
+        <v>894</v>
+      </c>
+      <c r="C726" t="s">
+        <v>38</v>
+      </c>
+      <c r="D726" t="s">
+        <v>44</v>
+      </c>
+      <c r="E726" t="s">
+        <v>45</v>
+      </c>
+      <c r="F726" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="B727" t="s">
+        <v>896</v>
+      </c>
+      <c r="C727" t="s">
+        <v>38</v>
+      </c>
+      <c r="D727" t="s">
+        <v>44</v>
+      </c>
+      <c r="E727" t="s">
+        <v>45</v>
+      </c>
+      <c r="F727" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="B728" t="s">
+        <v>897</v>
+      </c>
+      <c r="C728" t="s">
+        <v>41</v>
+      </c>
+      <c r="D728" t="s">
+        <v>44</v>
+      </c>
+      <c r="E728" t="s">
+        <v>45</v>
+      </c>
+      <c r="F728" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="B729" t="s">
+        <v>898</v>
+      </c>
+      <c r="C729" t="s">
+        <v>41</v>
+      </c>
+      <c r="D729" t="s">
+        <v>44</v>
+      </c>
+      <c r="E729" t="s">
+        <v>45</v>
+      </c>
+      <c r="F729" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="B730" t="s">
+        <v>899</v>
+      </c>
+      <c r="C730" t="s">
+        <v>38</v>
+      </c>
+      <c r="D730" t="s">
+        <v>44</v>
+      </c>
+      <c r="E730" t="s">
+        <v>45</v>
+      </c>
+      <c r="F730" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="B731" t="s">
+        <v>900</v>
+      </c>
+      <c r="C731" t="s">
+        <v>38</v>
+      </c>
+      <c r="D731" t="s">
+        <v>44</v>
+      </c>
+      <c r="E731" t="s">
+        <v>45</v>
+      </c>
+      <c r="F731" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="B732" t="s">
+        <v>901</v>
+      </c>
+      <c r="C732" t="s">
+        <v>41</v>
+      </c>
+      <c r="D732" t="s">
+        <v>49</v>
+      </c>
+      <c r="E732" t="s">
+        <v>45</v>
+      </c>
+      <c r="F732" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="B733" t="s">
+        <v>902</v>
+      </c>
+      <c r="C733" t="s">
+        <v>41</v>
+      </c>
+      <c r="D733" t="s">
+        <v>44</v>
+      </c>
+      <c r="E733" t="s">
+        <v>45</v>
+      </c>
+      <c r="F733" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="B734" t="s">
+        <v>903</v>
+      </c>
+      <c r="C734" t="s">
+        <v>38</v>
+      </c>
+      <c r="D734" t="s">
+        <v>44</v>
+      </c>
+      <c r="E734" t="s">
+        <v>45</v>
+      </c>
+      <c r="F734" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="B735" t="s">
+        <v>904</v>
+      </c>
+      <c r="C735" t="s">
+        <v>52</v>
+      </c>
+      <c r="D735" t="s">
+        <v>44</v>
+      </c>
+      <c r="E735" t="s">
+        <v>45</v>
+      </c>
+      <c r="F735" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="B736" t="s">
+        <v>905</v>
+      </c>
+      <c r="C736" t="s">
+        <v>52</v>
+      </c>
+      <c r="D736" t="s">
+        <v>44</v>
+      </c>
+      <c r="E736" t="s">
+        <v>45</v>
+      </c>
+      <c r="F736" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="B737" t="s">
+        <v>906</v>
+      </c>
+      <c r="C737" t="s">
+        <v>52</v>
+      </c>
+      <c r="D737" t="s">
+        <v>44</v>
+      </c>
+      <c r="E737" t="s">
+        <v>45</v>
+      </c>
+      <c r="F737" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="B738" t="s">
+        <v>907</v>
+      </c>
+      <c r="C738" t="s">
+        <v>52</v>
+      </c>
+      <c r="D738" t="s">
+        <v>44</v>
+      </c>
+      <c r="E738" t="s">
+        <v>45</v>
+      </c>
+      <c r="F738" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="B739" t="s">
+        <v>908</v>
+      </c>
+      <c r="C739" t="s">
+        <v>52</v>
+      </c>
+      <c r="D739" t="s">
+        <v>44</v>
+      </c>
+      <c r="E739" t="s">
+        <v>45</v>
+      </c>
+      <c r="F739" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="B740" t="s">
+        <v>909</v>
+      </c>
+      <c r="C740" t="s">
+        <v>52</v>
+      </c>
+      <c r="D740" t="s">
+        <v>44</v>
+      </c>
+      <c r="E740" t="s">
+        <v>45</v>
+      </c>
+      <c r="F740" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="B741" t="s">
+        <v>910</v>
+      </c>
+      <c r="C741" t="s">
+        <v>52</v>
+      </c>
+      <c r="D741" t="s">
+        <v>44</v>
+      </c>
+      <c r="E741" t="s">
+        <v>45</v>
+      </c>
+      <c r="F741" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="B742" t="s">
+        <v>911</v>
+      </c>
+      <c r="C742" t="s">
+        <v>52</v>
+      </c>
+      <c r="D742" t="s">
+        <v>44</v>
+      </c>
+      <c r="E742" t="s">
+        <v>45</v>
+      </c>
+      <c r="F742" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="B743" t="s">
+        <v>912</v>
+      </c>
+      <c r="C743" t="s">
+        <v>52</v>
+      </c>
+      <c r="D743" t="s">
+        <v>44</v>
+      </c>
+      <c r="E743" t="s">
+        <v>45</v>
+      </c>
+      <c r="F743" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="B744" t="s">
+        <v>913</v>
+      </c>
+      <c r="C744" t="s">
+        <v>52</v>
+      </c>
+      <c r="D744" t="s">
+        <v>44</v>
+      </c>
+      <c r="E744" t="s">
+        <v>45</v>
+      </c>
+      <c r="F744" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="B745" t="s">
+        <v>914</v>
+      </c>
+      <c r="C745" t="s">
+        <v>52</v>
+      </c>
+      <c r="D745" t="s">
+        <v>44</v>
+      </c>
+      <c r="E745" t="s">
+        <v>45</v>
+      </c>
+      <c r="F745" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="B746" t="s">
+        <v>915</v>
+      </c>
+      <c r="C746" t="s">
+        <v>52</v>
+      </c>
+      <c r="D746" t="s">
+        <v>44</v>
+      </c>
+      <c r="E746" t="s">
+        <v>45</v>
+      </c>
+      <c r="F746" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Ekran/TouchGFX/assets/texts/texts.xlsx
+++ b/Ekran/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32150" uniqueCount="916">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41338" uniqueCount="941">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -2827,6 +2827,81 @@
   </si>
   <si>
     <t xml:space="preserve">SingleUseId805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId810</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fan 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fan 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pump 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pump 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooling system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId820</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId825</t>
   </si>
 </sst>
 </file>
@@ -16893,7 +16968,7 @@
         <v>45</v>
       </c>
       <c r="F739" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="740">
@@ -16904,13 +16979,13 @@
         <v>52</v>
       </c>
       <c r="D740" t="s">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="E740" t="s">
         <v>45</v>
       </c>
       <c r="F740" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="741">
@@ -16927,7 +17002,7 @@
         <v>45</v>
       </c>
       <c r="F741" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="742">
@@ -16938,13 +17013,13 @@
         <v>52</v>
       </c>
       <c r="D742" t="s">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="E742" t="s">
         <v>45</v>
       </c>
       <c r="F742" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="743">
@@ -16961,7 +17036,7 @@
         <v>45</v>
       </c>
       <c r="F743" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="744">
@@ -16978,7 +17053,7 @@
         <v>45</v>
       </c>
       <c r="F744" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="745">
@@ -16989,13 +17064,13 @@
         <v>52</v>
       </c>
       <c r="D745" t="s">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="E745" t="s">
         <v>45</v>
       </c>
       <c r="F745" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="746">
@@ -17006,13 +17081,353 @@
         <v>52</v>
       </c>
       <c r="D746" t="s">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="E746" t="s">
         <v>45</v>
       </c>
       <c r="F746" t="s">
-        <v>46</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="B747" t="s">
+        <v>916</v>
+      </c>
+      <c r="C747" t="s">
+        <v>52</v>
+      </c>
+      <c r="D747" t="s">
+        <v>44</v>
+      </c>
+      <c r="E747" t="s">
+        <v>45</v>
+      </c>
+      <c r="F747" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="B748" t="s">
+        <v>917</v>
+      </c>
+      <c r="C748" t="s">
+        <v>52</v>
+      </c>
+      <c r="D748" t="s">
+        <v>44</v>
+      </c>
+      <c r="E748" t="s">
+        <v>45</v>
+      </c>
+      <c r="F748" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="B749" t="s">
+        <v>918</v>
+      </c>
+      <c r="C749" t="s">
+        <v>52</v>
+      </c>
+      <c r="D749" t="s">
+        <v>44</v>
+      </c>
+      <c r="E749" t="s">
+        <v>45</v>
+      </c>
+      <c r="F749" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="B750" t="s">
+        <v>919</v>
+      </c>
+      <c r="C750" t="s">
+        <v>52</v>
+      </c>
+      <c r="D750" t="s">
+        <v>44</v>
+      </c>
+      <c r="E750" t="s">
+        <v>45</v>
+      </c>
+      <c r="F750" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="B751" t="s">
+        <v>920</v>
+      </c>
+      <c r="C751" t="s">
+        <v>52</v>
+      </c>
+      <c r="D751" t="s">
+        <v>44</v>
+      </c>
+      <c r="E751" t="s">
+        <v>45</v>
+      </c>
+      <c r="F751" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="B752" t="s">
+        <v>921</v>
+      </c>
+      <c r="C752" t="s">
+        <v>52</v>
+      </c>
+      <c r="D752" t="s">
+        <v>44</v>
+      </c>
+      <c r="E752" t="s">
+        <v>45</v>
+      </c>
+      <c r="F752" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="B753" t="s">
+        <v>922</v>
+      </c>
+      <c r="C753" t="s">
+        <v>52</v>
+      </c>
+      <c r="D753" t="s">
+        <v>44</v>
+      </c>
+      <c r="E753" t="s">
+        <v>45</v>
+      </c>
+      <c r="F753" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="B754" t="s">
+        <v>923</v>
+      </c>
+      <c r="C754" t="s">
+        <v>52</v>
+      </c>
+      <c r="D754" t="s">
+        <v>44</v>
+      </c>
+      <c r="E754" t="s">
+        <v>45</v>
+      </c>
+      <c r="F754" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="B755" t="s">
+        <v>925</v>
+      </c>
+      <c r="C755" t="s">
+        <v>52</v>
+      </c>
+      <c r="D755" t="s">
+        <v>44</v>
+      </c>
+      <c r="E755" t="s">
+        <v>45</v>
+      </c>
+      <c r="F755" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="B756" t="s">
+        <v>927</v>
+      </c>
+      <c r="C756" t="s">
+        <v>52</v>
+      </c>
+      <c r="D756" t="s">
+        <v>44</v>
+      </c>
+      <c r="E756" t="s">
+        <v>45</v>
+      </c>
+      <c r="F756" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="B757" t="s">
+        <v>929</v>
+      </c>
+      <c r="C757" t="s">
+        <v>52</v>
+      </c>
+      <c r="D757" t="s">
+        <v>44</v>
+      </c>
+      <c r="E757" t="s">
+        <v>45</v>
+      </c>
+      <c r="F757" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="B758" t="s">
+        <v>931</v>
+      </c>
+      <c r="C758" t="s">
+        <v>52</v>
+      </c>
+      <c r="D758" t="s">
+        <v>44</v>
+      </c>
+      <c r="E758" t="s">
+        <v>45</v>
+      </c>
+      <c r="F758" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="B759" t="s">
+        <v>933</v>
+      </c>
+      <c r="C759" t="s">
+        <v>52</v>
+      </c>
+      <c r="D759" t="s">
+        <v>44</v>
+      </c>
+      <c r="E759" t="s">
+        <v>45</v>
+      </c>
+      <c r="F759" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="B760" t="s">
+        <v>934</v>
+      </c>
+      <c r="C760" t="s">
+        <v>52</v>
+      </c>
+      <c r="D760" t="s">
+        <v>44</v>
+      </c>
+      <c r="E760" t="s">
+        <v>45</v>
+      </c>
+      <c r="F760" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="B761" t="s">
+        <v>935</v>
+      </c>
+      <c r="C761" t="s">
+        <v>52</v>
+      </c>
+      <c r="D761" t="s">
+        <v>44</v>
+      </c>
+      <c r="E761" t="s">
+        <v>45</v>
+      </c>
+      <c r="F761" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="B762" t="s">
+        <v>936</v>
+      </c>
+      <c r="C762" t="s">
+        <v>52</v>
+      </c>
+      <c r="D762" t="s">
+        <v>44</v>
+      </c>
+      <c r="E762" t="s">
+        <v>45</v>
+      </c>
+      <c r="F762" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="B763" t="s">
+        <v>937</v>
+      </c>
+      <c r="C763" t="s">
+        <v>52</v>
+      </c>
+      <c r="D763" t="s">
+        <v>44</v>
+      </c>
+      <c r="E763" t="s">
+        <v>45</v>
+      </c>
+      <c r="F763" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="B764" t="s">
+        <v>938</v>
+      </c>
+      <c r="C764" t="s">
+        <v>52</v>
+      </c>
+      <c r="D764" t="s">
+        <v>44</v>
+      </c>
+      <c r="E764" t="s">
+        <v>45</v>
+      </c>
+      <c r="F764" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="B765" t="s">
+        <v>939</v>
+      </c>
+      <c r="C765" t="s">
+        <v>52</v>
+      </c>
+      <c r="D765" t="s">
+        <v>44</v>
+      </c>
+      <c r="E765" t="s">
+        <v>45</v>
+      </c>
+      <c r="F765" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="B766" t="s">
+        <v>940</v>
+      </c>
+      <c r="C766" t="s">
+        <v>52</v>
+      </c>
+      <c r="D766" t="s">
+        <v>44</v>
+      </c>
+      <c r="E766" t="s">
+        <v>45</v>
+      </c>
+      <c r="F766" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/Ekran/TouchGFX/assets/texts/texts.xlsx
+++ b/Ekran/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32150" uniqueCount="916">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36669" uniqueCount="917">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -2827,6 +2827,10 @@
   </si>
   <si>
     <t xml:space="preserve">SingleUseId805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMMUNICATION
+FAULT</t>
   </si>
 </sst>
 </file>
@@ -16179,7 +16183,7 @@
         <v>45</v>
       </c>
       <c r="F697" t="s">
-        <v>860</v>
+        <v>916</v>
       </c>
     </row>
     <row r="698">
@@ -16230,7 +16234,7 @@
         <v>45</v>
       </c>
       <c r="F700" t="s">
-        <v>860</v>
+        <v>916</v>
       </c>
     </row>
     <row r="701">
@@ -16281,7 +16285,7 @@
         <v>45</v>
       </c>
       <c r="F703" t="s">
-        <v>860</v>
+        <v>916</v>
       </c>
     </row>
     <row r="704">
@@ -16332,7 +16336,7 @@
         <v>45</v>
       </c>
       <c r="F706" t="s">
-        <v>860</v>
+        <v>916</v>
       </c>
     </row>
     <row r="707">
@@ -16383,7 +16387,7 @@
         <v>45</v>
       </c>
       <c r="F709" t="s">
-        <v>860</v>
+        <v>916</v>
       </c>
     </row>
     <row r="710">
@@ -16434,7 +16438,7 @@
         <v>45</v>
       </c>
       <c r="F712" t="s">
-        <v>860</v>
+        <v>916</v>
       </c>
     </row>
     <row r="713">
@@ -16485,7 +16489,7 @@
         <v>45</v>
       </c>
       <c r="F715" t="s">
-        <v>860</v>
+        <v>916</v>
       </c>
     </row>
     <row r="716">
@@ -16536,7 +16540,7 @@
         <v>45</v>
       </c>
       <c r="F718" t="s">
-        <v>860</v>
+        <v>916</v>
       </c>
     </row>
     <row r="719">
@@ -16604,7 +16608,7 @@
         <v>45</v>
       </c>
       <c r="F722" t="s">
-        <v>860</v>
+        <v>916</v>
       </c>
     </row>
     <row r="723">
@@ -16655,7 +16659,7 @@
         <v>45</v>
       </c>
       <c r="F725" t="s">
-        <v>860</v>
+        <v>916</v>
       </c>
     </row>
     <row r="726">

--- a/Ekran/TouchGFX/assets/texts/texts.xlsx
+++ b/Ekran/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36669" uniqueCount="917">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50670" uniqueCount="951">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -2831,6 +2831,108 @@
   <si>
     <t xml:space="preserve">COMMUNICATION
 FAULT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fan1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fan2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pump1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pump2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId810</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId820</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId830</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId833</t>
   </si>
 </sst>
 </file>
@@ -16897,7 +16999,7 @@
         <v>45</v>
       </c>
       <c r="F739" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="740">
@@ -16908,13 +17010,13 @@
         <v>52</v>
       </c>
       <c r="D740" t="s">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="E740" t="s">
         <v>45</v>
       </c>
       <c r="F740" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="741">
@@ -16931,7 +17033,7 @@
         <v>45</v>
       </c>
       <c r="F741" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="742">
@@ -16942,13 +17044,13 @@
         <v>52</v>
       </c>
       <c r="D742" t="s">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="E742" t="s">
         <v>45</v>
       </c>
       <c r="F742" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="743">
@@ -16965,7 +17067,7 @@
         <v>45</v>
       </c>
       <c r="F743" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="744">
@@ -16982,7 +17084,7 @@
         <v>45</v>
       </c>
       <c r="F744" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="745">
@@ -16993,13 +17095,13 @@
         <v>52</v>
       </c>
       <c r="D745" t="s">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="E745" t="s">
         <v>45</v>
       </c>
       <c r="F745" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="746">
@@ -17010,13 +17112,489 @@
         <v>52</v>
       </c>
       <c r="D746" t="s">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="E746" t="s">
         <v>45</v>
       </c>
       <c r="F746" t="s">
-        <v>46</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="B747" t="s">
+        <v>917</v>
+      </c>
+      <c r="C747" t="s">
+        <v>52</v>
+      </c>
+      <c r="D747" t="s">
+        <v>44</v>
+      </c>
+      <c r="E747" t="s">
+        <v>45</v>
+      </c>
+      <c r="F747" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="B748" t="s">
+        <v>919</v>
+      </c>
+      <c r="C748" t="s">
+        <v>52</v>
+      </c>
+      <c r="D748" t="s">
+        <v>44</v>
+      </c>
+      <c r="E748" t="s">
+        <v>45</v>
+      </c>
+      <c r="F748" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="B749" t="s">
+        <v>921</v>
+      </c>
+      <c r="C749" t="s">
+        <v>52</v>
+      </c>
+      <c r="D749" t="s">
+        <v>44</v>
+      </c>
+      <c r="E749" t="s">
+        <v>45</v>
+      </c>
+      <c r="F749" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="B750" t="s">
+        <v>923</v>
+      </c>
+      <c r="C750" t="s">
+        <v>52</v>
+      </c>
+      <c r="D750" t="s">
+        <v>44</v>
+      </c>
+      <c r="E750" t="s">
+        <v>45</v>
+      </c>
+      <c r="F750" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="B751" t="s">
+        <v>925</v>
+      </c>
+      <c r="C751" t="s">
+        <v>52</v>
+      </c>
+      <c r="D751" t="s">
+        <v>44</v>
+      </c>
+      <c r="E751" t="s">
+        <v>45</v>
+      </c>
+      <c r="F751" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="B752" t="s">
+        <v>926</v>
+      </c>
+      <c r="C752" t="s">
+        <v>52</v>
+      </c>
+      <c r="D752" t="s">
+        <v>44</v>
+      </c>
+      <c r="E752" t="s">
+        <v>45</v>
+      </c>
+      <c r="F752" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="B753" t="s">
+        <v>927</v>
+      </c>
+      <c r="C753" t="s">
+        <v>52</v>
+      </c>
+      <c r="D753" t="s">
+        <v>44</v>
+      </c>
+      <c r="E753" t="s">
+        <v>45</v>
+      </c>
+      <c r="F753" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="B754" t="s">
+        <v>928</v>
+      </c>
+      <c r="C754" t="s">
+        <v>52</v>
+      </c>
+      <c r="D754" t="s">
+        <v>44</v>
+      </c>
+      <c r="E754" t="s">
+        <v>45</v>
+      </c>
+      <c r="F754" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="B755" t="s">
+        <v>929</v>
+      </c>
+      <c r="C755" t="s">
+        <v>52</v>
+      </c>
+      <c r="D755" t="s">
+        <v>44</v>
+      </c>
+      <c r="E755" t="s">
+        <v>45</v>
+      </c>
+      <c r="F755" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="B756" t="s">
+        <v>930</v>
+      </c>
+      <c r="C756" t="s">
+        <v>52</v>
+      </c>
+      <c r="D756" t="s">
+        <v>44</v>
+      </c>
+      <c r="E756" t="s">
+        <v>45</v>
+      </c>
+      <c r="F756" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="B757" t="s">
+        <v>931</v>
+      </c>
+      <c r="C757" t="s">
+        <v>52</v>
+      </c>
+      <c r="D757" t="s">
+        <v>44</v>
+      </c>
+      <c r="E757" t="s">
+        <v>45</v>
+      </c>
+      <c r="F757" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="B758" t="s">
+        <v>932</v>
+      </c>
+      <c r="C758" t="s">
+        <v>52</v>
+      </c>
+      <c r="D758" t="s">
+        <v>44</v>
+      </c>
+      <c r="E758" t="s">
+        <v>45</v>
+      </c>
+      <c r="F758" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="B759" t="s">
+        <v>933</v>
+      </c>
+      <c r="C759" t="s">
+        <v>52</v>
+      </c>
+      <c r="D759" t="s">
+        <v>44</v>
+      </c>
+      <c r="E759" t="s">
+        <v>45</v>
+      </c>
+      <c r="F759" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="B760" t="s">
+        <v>934</v>
+      </c>
+      <c r="C760" t="s">
+        <v>52</v>
+      </c>
+      <c r="D760" t="s">
+        <v>44</v>
+      </c>
+      <c r="E760" t="s">
+        <v>45</v>
+      </c>
+      <c r="F760" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="B761" t="s">
+        <v>935</v>
+      </c>
+      <c r="C761" t="s">
+        <v>52</v>
+      </c>
+      <c r="D761" t="s">
+        <v>44</v>
+      </c>
+      <c r="E761" t="s">
+        <v>45</v>
+      </c>
+      <c r="F761" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="B762" t="s">
+        <v>936</v>
+      </c>
+      <c r="C762" t="s">
+        <v>52</v>
+      </c>
+      <c r="D762" t="s">
+        <v>44</v>
+      </c>
+      <c r="E762" t="s">
+        <v>45</v>
+      </c>
+      <c r="F762" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="B763" t="s">
+        <v>937</v>
+      </c>
+      <c r="C763" t="s">
+        <v>52</v>
+      </c>
+      <c r="D763" t="s">
+        <v>44</v>
+      </c>
+      <c r="E763" t="s">
+        <v>45</v>
+      </c>
+      <c r="F763" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="B764" t="s">
+        <v>938</v>
+      </c>
+      <c r="C764" t="s">
+        <v>52</v>
+      </c>
+      <c r="D764" t="s">
+        <v>44</v>
+      </c>
+      <c r="E764" t="s">
+        <v>45</v>
+      </c>
+      <c r="F764" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="B765" t="s">
+        <v>939</v>
+      </c>
+      <c r="C765" t="s">
+        <v>52</v>
+      </c>
+      <c r="D765" t="s">
+        <v>44</v>
+      </c>
+      <c r="E765" t="s">
+        <v>45</v>
+      </c>
+      <c r="F765" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="B766" t="s">
+        <v>940</v>
+      </c>
+      <c r="C766" t="s">
+        <v>52</v>
+      </c>
+      <c r="D766" t="s">
+        <v>44</v>
+      </c>
+      <c r="E766" t="s">
+        <v>45</v>
+      </c>
+      <c r="F766" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="B767" t="s">
+        <v>942</v>
+      </c>
+      <c r="C767" t="s">
+        <v>52</v>
+      </c>
+      <c r="D767" t="s">
+        <v>49</v>
+      </c>
+      <c r="E767" t="s">
+        <v>45</v>
+      </c>
+      <c r="F767" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="B768" t="s">
+        <v>943</v>
+      </c>
+      <c r="C768" t="s">
+        <v>52</v>
+      </c>
+      <c r="D768" t="s">
+        <v>44</v>
+      </c>
+      <c r="E768" t="s">
+        <v>45</v>
+      </c>
+      <c r="F768" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="B769" t="s">
+        <v>945</v>
+      </c>
+      <c r="C769" t="s">
+        <v>52</v>
+      </c>
+      <c r="D769" t="s">
+        <v>44</v>
+      </c>
+      <c r="E769" t="s">
+        <v>45</v>
+      </c>
+      <c r="F769" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="B770" t="s">
+        <v>946</v>
+      </c>
+      <c r="C770" t="s">
+        <v>52</v>
+      </c>
+      <c r="D770" t="s">
+        <v>44</v>
+      </c>
+      <c r="E770" t="s">
+        <v>45</v>
+      </c>
+      <c r="F770" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="B771" t="s">
+        <v>947</v>
+      </c>
+      <c r="C771" t="s">
+        <v>52</v>
+      </c>
+      <c r="D771" t="s">
+        <v>49</v>
+      </c>
+      <c r="E771" t="s">
+        <v>45</v>
+      </c>
+      <c r="F771" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="B772" t="s">
+        <v>948</v>
+      </c>
+      <c r="C772" t="s">
+        <v>52</v>
+      </c>
+      <c r="D772" t="s">
+        <v>44</v>
+      </c>
+      <c r="E772" t="s">
+        <v>45</v>
+      </c>
+      <c r="F772" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="B773" t="s">
+        <v>949</v>
+      </c>
+      <c r="C773" t="s">
+        <v>52</v>
+      </c>
+      <c r="D773" t="s">
+        <v>44</v>
+      </c>
+      <c r="E773" t="s">
+        <v>45</v>
+      </c>
+      <c r="F773" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="B774" t="s">
+        <v>950</v>
+      </c>
+      <c r="C774" t="s">
+        <v>52</v>
+      </c>
+      <c r="D774" t="s">
+        <v>44</v>
+      </c>
+      <c r="E774" t="s">
+        <v>45</v>
+      </c>
+      <c r="F774" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Ekran/TouchGFX/assets/texts/texts.xlsx
+++ b/Ekran/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50670" uniqueCount="951">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55357" uniqueCount="952">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -2933,6 +2933,9 @@
   </si>
   <si>
     <t xml:space="preserve">SingleUseId833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current:</t>
   </si>
 </sst>
 </file>
@@ -4895,7 +4898,7 @@
         <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>110</v>
+        <v>951</v>
       </c>
     </row>
     <row r="28">

--- a/Ekran/TouchGFX/assets/texts/texts.xlsx
+++ b/Ekran/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122774" uniqueCount="962">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215516" uniqueCount="1042">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -2966,6 +2966,246 @@
   </si>
   <si>
     <t xml:space="preserve">Cooling system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current Fault</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECU information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACTIVATING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHARGING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId840</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNKNOWN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FATAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INVERTER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XBEE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId850</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precharg info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">finished</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId870</t>
+  </si>
+  <si>
+    <t xml:space="preserve">greske</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">faults</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shutdown info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">open/closed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fault airMinus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fault airPlus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fault airPlus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PreChargeRelay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fault SHD </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nije se zatvorio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reley closed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nije se zatvorio A-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V&lt;95%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId880</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nije se zatvorio A+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reley open</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not finished</t>
+  </si>
+  <si>
+    <t xml:space="preserve">open</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">close</t>
+  </si>
+  <si>
+    <t xml:space="preserve">closed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fault SD cmd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fault SHD cmd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHD cmd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voltage</t>
   </si>
 </sst>
 </file>
@@ -17023,42 +17263,618 @@
         <v>961</v>
       </c>
     </row>
-    <row r="736"/>
-    <row r="737"/>
-    <row r="738"/>
-    <row r="739"/>
-    <row r="740"/>
-    <row r="741"/>
-    <row r="742"/>
-    <row r="743"/>
-    <row r="744"/>
-    <row r="745"/>
-    <row r="746"/>
-    <row r="747"/>
-    <row r="748"/>
-    <row r="749"/>
-    <row r="750"/>
-    <row r="751"/>
-    <row r="752"/>
-    <row r="753"/>
-    <row r="754"/>
-    <row r="755"/>
-    <row r="756"/>
-    <row r="757"/>
-    <row r="758"/>
-    <row r="759"/>
-    <row r="760"/>
-    <row r="761"/>
-    <row r="762"/>
-    <row r="763"/>
-    <row r="764"/>
-    <row r="765"/>
-    <row r="766"/>
-    <row r="767"/>
-    <row r="768"/>
-    <row r="769"/>
-    <row r="770"/>
-    <row r="771"/>
+    <row r="736">
+      <c r="B736" t="s">
+        <v>962</v>
+      </c>
+      <c r="C736" t="s">
+        <v>952</v>
+      </c>
+      <c r="D736" t="s">
+        <v>44</v>
+      </c>
+      <c r="E736" t="s">
+        <v>45</v>
+      </c>
+      <c r="F736" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="B737" t="s">
+        <v>963</v>
+      </c>
+      <c r="C737" t="s">
+        <v>952</v>
+      </c>
+      <c r="D737" t="s">
+        <v>44</v>
+      </c>
+      <c r="E737" t="s">
+        <v>45</v>
+      </c>
+      <c r="F737" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="B738" t="s">
+        <v>966</v>
+      </c>
+      <c r="C738" t="s">
+        <v>52</v>
+      </c>
+      <c r="D738" t="s">
+        <v>44</v>
+      </c>
+      <c r="E738" t="s">
+        <v>45</v>
+      </c>
+      <c r="F738" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="B739" t="s">
+        <v>968</v>
+      </c>
+      <c r="C739" t="s">
+        <v>52</v>
+      </c>
+      <c r="D739" t="s">
+        <v>44</v>
+      </c>
+      <c r="E739" t="s">
+        <v>45</v>
+      </c>
+      <c r="F739" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="B740" t="s">
+        <v>970</v>
+      </c>
+      <c r="C740" t="s">
+        <v>52</v>
+      </c>
+      <c r="D740" t="s">
+        <v>44</v>
+      </c>
+      <c r="E740" t="s">
+        <v>45</v>
+      </c>
+      <c r="F740" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="B741" t="s">
+        <v>972</v>
+      </c>
+      <c r="C741" t="s">
+        <v>52</v>
+      </c>
+      <c r="D741" t="s">
+        <v>44</v>
+      </c>
+      <c r="E741" t="s">
+        <v>45</v>
+      </c>
+      <c r="F741" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="B742" t="s">
+        <v>974</v>
+      </c>
+      <c r="C742" t="s">
+        <v>52</v>
+      </c>
+      <c r="D742" t="s">
+        <v>44</v>
+      </c>
+      <c r="E742" t="s">
+        <v>45</v>
+      </c>
+      <c r="F742" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="B743" t="s">
+        <v>976</v>
+      </c>
+      <c r="C743" t="s">
+        <v>52</v>
+      </c>
+      <c r="D743" t="s">
+        <v>44</v>
+      </c>
+      <c r="E743" t="s">
+        <v>45</v>
+      </c>
+      <c r="F743" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="B744" t="s">
+        <v>977</v>
+      </c>
+      <c r="C744" t="s">
+        <v>52</v>
+      </c>
+      <c r="D744" t="s">
+        <v>44</v>
+      </c>
+      <c r="E744" t="s">
+        <v>45</v>
+      </c>
+      <c r="F744" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="B745" t="s">
+        <v>978</v>
+      </c>
+      <c r="C745" t="s">
+        <v>52</v>
+      </c>
+      <c r="D745" t="s">
+        <v>44</v>
+      </c>
+      <c r="E745" t="s">
+        <v>45</v>
+      </c>
+      <c r="F745" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="B746" t="s">
+        <v>980</v>
+      </c>
+      <c r="C746" t="s">
+        <v>52</v>
+      </c>
+      <c r="D746" t="s">
+        <v>44</v>
+      </c>
+      <c r="E746" t="s">
+        <v>45</v>
+      </c>
+      <c r="F746" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="B747" t="s">
+        <v>982</v>
+      </c>
+      <c r="C747" t="s">
+        <v>52</v>
+      </c>
+      <c r="D747" t="s">
+        <v>44</v>
+      </c>
+      <c r="E747" t="s">
+        <v>45</v>
+      </c>
+      <c r="F747" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="B748" t="s">
+        <v>984</v>
+      </c>
+      <c r="C748" t="s">
+        <v>52</v>
+      </c>
+      <c r="D748" t="s">
+        <v>44</v>
+      </c>
+      <c r="E748" t="s">
+        <v>45</v>
+      </c>
+      <c r="F748" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="B749" t="s">
+        <v>986</v>
+      </c>
+      <c r="C749" t="s">
+        <v>52</v>
+      </c>
+      <c r="D749" t="s">
+        <v>44</v>
+      </c>
+      <c r="E749" t="s">
+        <v>45</v>
+      </c>
+      <c r="F749" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="B750" t="s">
+        <v>988</v>
+      </c>
+      <c r="C750" t="s">
+        <v>52</v>
+      </c>
+      <c r="D750" t="s">
+        <v>44</v>
+      </c>
+      <c r="E750" t="s">
+        <v>45</v>
+      </c>
+      <c r="F750" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="B751" t="s">
+        <v>990</v>
+      </c>
+      <c r="C751" t="s">
+        <v>103</v>
+      </c>
+      <c r="D751" t="s">
+        <v>44</v>
+      </c>
+      <c r="E751" t="s">
+        <v>45</v>
+      </c>
+      <c r="F751" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="B752" t="s">
+        <v>991</v>
+      </c>
+      <c r="C752" t="s">
+        <v>103</v>
+      </c>
+      <c r="D752" t="s">
+        <v>44</v>
+      </c>
+      <c r="E752" t="s">
+        <v>45</v>
+      </c>
+      <c r="F752" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="B753" t="s">
+        <v>996</v>
+      </c>
+      <c r="C753" t="s">
+        <v>952</v>
+      </c>
+      <c r="D753" t="s">
+        <v>49</v>
+      </c>
+      <c r="E753" t="s">
+        <v>45</v>
+      </c>
+      <c r="F753" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="B754" t="s">
+        <v>997</v>
+      </c>
+      <c r="C754" t="s">
+        <v>952</v>
+      </c>
+      <c r="D754" t="s">
+        <v>44</v>
+      </c>
+      <c r="E754" t="s">
+        <v>45</v>
+      </c>
+      <c r="F754" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="B755" t="s">
+        <v>998</v>
+      </c>
+      <c r="C755" t="s">
+        <v>952</v>
+      </c>
+      <c r="D755" t="s">
+        <v>49</v>
+      </c>
+      <c r="E755" t="s">
+        <v>45</v>
+      </c>
+      <c r="F755" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="B756" t="s">
+        <v>999</v>
+      </c>
+      <c r="C756" t="s">
+        <v>952</v>
+      </c>
+      <c r="D756" t="s">
+        <v>44</v>
+      </c>
+      <c r="E756" t="s">
+        <v>45</v>
+      </c>
+      <c r="F756" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="B757" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C757" t="s">
+        <v>952</v>
+      </c>
+      <c r="D757" t="s">
+        <v>44</v>
+      </c>
+      <c r="E757" t="s">
+        <v>45</v>
+      </c>
+      <c r="F757" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="B758" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C758" t="s">
+        <v>952</v>
+      </c>
+      <c r="D758" t="s">
+        <v>44</v>
+      </c>
+      <c r="E758" t="s">
+        <v>45</v>
+      </c>
+      <c r="F758" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="B759" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C759" t="s">
+        <v>952</v>
+      </c>
+      <c r="D759" t="s">
+        <v>44</v>
+      </c>
+      <c r="E759" t="s">
+        <v>45</v>
+      </c>
+      <c r="F759" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="B760" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C760" t="s">
+        <v>38</v>
+      </c>
+      <c r="D760" t="s">
+        <v>44</v>
+      </c>
+      <c r="E760" t="s">
+        <v>45</v>
+      </c>
+      <c r="F760" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="B761" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C761" t="s">
+        <v>38</v>
+      </c>
+      <c r="D761" t="s">
+        <v>44</v>
+      </c>
+      <c r="E761" t="s">
+        <v>45</v>
+      </c>
+      <c r="F761" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="B762" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C762" t="s">
+        <v>952</v>
+      </c>
+      <c r="D762" t="s">
+        <v>44</v>
+      </c>
+      <c r="E762" t="s">
+        <v>45</v>
+      </c>
+      <c r="F762" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="B763" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C763" t="s">
+        <v>952</v>
+      </c>
+      <c r="D763" t="s">
+        <v>44</v>
+      </c>
+      <c r="E763" t="s">
+        <v>45</v>
+      </c>
+      <c r="F763" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="B764" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C764" t="s">
+        <v>38</v>
+      </c>
+      <c r="D764" t="s">
+        <v>44</v>
+      </c>
+      <c r="E764" t="s">
+        <v>45</v>
+      </c>
+      <c r="F764" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="B765" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C765" t="s">
+        <v>38</v>
+      </c>
+      <c r="D765" t="s">
+        <v>44</v>
+      </c>
+      <c r="E765" t="s">
+        <v>45</v>
+      </c>
+      <c r="F765" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="B766" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C766" t="s">
+        <v>38</v>
+      </c>
+      <c r="D766" t="s">
+        <v>44</v>
+      </c>
+      <c r="E766" t="s">
+        <v>45</v>
+      </c>
+      <c r="F766" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="B767" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C767" t="s">
+        <v>38</v>
+      </c>
+      <c r="D767" t="s">
+        <v>44</v>
+      </c>
+      <c r="E767" t="s">
+        <v>45</v>
+      </c>
+      <c r="F767" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="B768" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C768" t="s">
+        <v>952</v>
+      </c>
+      <c r="D768" t="s">
+        <v>44</v>
+      </c>
+      <c r="E768" t="s">
+        <v>45</v>
+      </c>
+      <c r="F768" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="B769" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C769" t="s">
+        <v>38</v>
+      </c>
+      <c r="D769" t="s">
+        <v>44</v>
+      </c>
+      <c r="E769" t="s">
+        <v>45</v>
+      </c>
+      <c r="F769" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="B770" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C770" t="s">
+        <v>952</v>
+      </c>
+      <c r="D770" t="s">
+        <v>44</v>
+      </c>
+      <c r="E770" t="s">
+        <v>45</v>
+      </c>
+      <c r="F770" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="B771" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C771" t="s">
+        <v>952</v>
+      </c>
+      <c r="D771" t="s">
+        <v>44</v>
+      </c>
+      <c r="E771" t="s">
+        <v>45</v>
+      </c>
+      <c r="F771" t="s">
+        <v>1035</v>
+      </c>
+    </row>
     <row r="772"/>
     <row r="773"/>
     <row r="774"/>

--- a/Ekran/TouchGFX/assets/texts/texts.xlsx
+++ b/Ekran/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215516" uniqueCount="1042">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262598" uniqueCount="1065">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -3206,6 +3206,75 @@
   </si>
   <si>
     <t xml:space="preserve">Voltage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEMP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEMP2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEMP3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEMP4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEMP5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fatal error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEMP6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vol:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Curr:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId890</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actuator fault code:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId894</t>
   </si>
 </sst>
 </file>
@@ -16682,7 +16751,7 @@
         <v>45</v>
       </c>
       <c r="F701" t="s">
-        <v>79</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="702">
@@ -16733,7 +16802,7 @@
         <v>45</v>
       </c>
       <c r="F704" t="s">
-        <v>951</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="705">
@@ -17532,7 +17601,7 @@
         <v>45</v>
       </c>
       <c r="F751" t="s">
-        <v>256</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="752">
@@ -17549,7 +17618,7 @@
         <v>45</v>
       </c>
       <c r="F752" t="s">
-        <v>261</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="753">
@@ -17770,7 +17839,7 @@
         <v>45</v>
       </c>
       <c r="F765" t="s">
-        <v>1039</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="766">
@@ -17875,9 +17944,193 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="772"/>
-    <row r="773"/>
-    <row r="774"/>
+    <row r="772">
+      <c r="B772" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C772" t="s">
+        <v>103</v>
+      </c>
+      <c r="D772" t="s">
+        <v>44</v>
+      </c>
+      <c r="E772" t="s">
+        <v>45</v>
+      </c>
+      <c r="F772" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="B773" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C773" t="s">
+        <v>103</v>
+      </c>
+      <c r="D773" t="s">
+        <v>44</v>
+      </c>
+      <c r="E773" t="s">
+        <v>45</v>
+      </c>
+      <c r="F773" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="B774" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C774" t="s">
+        <v>103</v>
+      </c>
+      <c r="D774" t="s">
+        <v>44</v>
+      </c>
+      <c r="E774" t="s">
+        <v>45</v>
+      </c>
+      <c r="F774" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="B775" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C775" t="s">
+        <v>952</v>
+      </c>
+      <c r="D775" t="s">
+        <v>44</v>
+      </c>
+      <c r="E775" t="s">
+        <v>45</v>
+      </c>
+      <c r="F775" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="B776" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C776" t="s">
+        <v>103</v>
+      </c>
+      <c r="D776" t="s">
+        <v>44</v>
+      </c>
+      <c r="E776" t="s">
+        <v>45</v>
+      </c>
+      <c r="F776" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="B777" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C777" t="s">
+        <v>52</v>
+      </c>
+      <c r="D777" t="s">
+        <v>44</v>
+      </c>
+      <c r="E777" t="s">
+        <v>45</v>
+      </c>
+      <c r="F777" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="B778" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C778" t="s">
+        <v>955</v>
+      </c>
+      <c r="D778" t="s">
+        <v>44</v>
+      </c>
+      <c r="E778" t="s">
+        <v>45</v>
+      </c>
+      <c r="F778" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="B779" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C779" t="s">
+        <v>955</v>
+      </c>
+      <c r="D779" t="s">
+        <v>44</v>
+      </c>
+      <c r="E779" t="s">
+        <v>45</v>
+      </c>
+      <c r="F779" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="B780" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C780" t="s">
+        <v>38</v>
+      </c>
+      <c r="D780" t="s">
+        <v>44</v>
+      </c>
+      <c r="E780" t="s">
+        <v>45</v>
+      </c>
+      <c r="F780" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="B781" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C781" t="s">
+        <v>41</v>
+      </c>
+      <c r="D781" t="s">
+        <v>49</v>
+      </c>
+      <c r="E781" t="s">
+        <v>45</v>
+      </c>
+      <c r="F781" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="B782" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C782" t="s">
+        <v>41</v>
+      </c>
+      <c r="D782" t="s">
+        <v>44</v>
+      </c>
+      <c r="E782" t="s">
+        <v>45</v>
+      </c>
+      <c r="F782" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E2"/>

--- a/Ekran/TouchGFX/assets/texts/texts.xlsx
+++ b/Ekran/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262598" uniqueCount="1065">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272114" uniqueCount="1069">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -3275,6 +3275,18 @@
   </si>
   <si>
     <t xml:space="preserve">SingleUseId894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHEELS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display</t>
   </si>
 </sst>
 </file>
@@ -18131,6 +18143,40 @@
         <v>55</v>
       </c>
     </row>
+    <row r="783">
+      <c r="B783" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C783" t="s">
+        <v>52</v>
+      </c>
+      <c r="D783" t="s">
+        <v>44</v>
+      </c>
+      <c r="E783" t="s">
+        <v>45</v>
+      </c>
+      <c r="F783" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="B784" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C784" t="s">
+        <v>52</v>
+      </c>
+      <c r="D784" t="s">
+        <v>44</v>
+      </c>
+      <c r="E784" t="s">
+        <v>45</v>
+      </c>
+      <c r="F784" t="s">
+        <v>1068</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E2"/>
